--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6142,13 +6142,88 @@
         <v>21.77725</v>
       </c>
       <c r="E228" t="n">
-        <v>21.3321</v>
+        <v>21.0002</v>
       </c>
       <c r="F228" t="n">
-        <v>21.4742</v>
+        <v>21.35805</v>
       </c>
       <c r="G228" t="n">
-        <v>440897</v>
+        <v>1474987</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45047.29166666666</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>21.35805</v>
+      </c>
+      <c r="D229" t="n">
+        <v>22.32265</v>
+      </c>
+      <c r="E229" t="n">
+        <v>21.1644</v>
+      </c>
+      <c r="F229" t="n">
+        <v>22.1908</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1568853</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45078.29166666666</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>22.1908</v>
+      </c>
+      <c r="D230" t="n">
+        <v>22.24515</v>
+      </c>
+      <c r="E230" t="n">
+        <v>21.4818</v>
+      </c>
+      <c r="F230" t="n">
+        <v>21.7749</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1549990</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45110.29166666666</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>21.7749</v>
+      </c>
+      <c r="D231" t="n">
+        <v>22.0456</v>
+      </c>
+      <c r="E231" t="n">
+        <v>21.69175</v>
+      </c>
+      <c r="F231" t="n">
+        <v>21.73895</v>
+      </c>
+      <c r="G231" t="n">
+        <v>319645</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -6217,13 +6217,13 @@
         <v>22.0456</v>
       </c>
       <c r="E231" t="n">
-        <v>21.69175</v>
+        <v>21.1303</v>
       </c>
       <c r="F231" t="n">
-        <v>21.73895</v>
+        <v>21.1486</v>
       </c>
       <c r="G231" t="n">
-        <v>319645</v>
+        <v>778046</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>38628.29166666666</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>38992.29166666666</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -6217,13 +6217,38 @@
         <v>22.0456</v>
       </c>
       <c r="E231" t="n">
-        <v>21.1303</v>
+        <v>21.06865</v>
       </c>
       <c r="F231" t="n">
-        <v>21.1486</v>
+        <v>21.72035</v>
       </c>
       <c r="G231" t="n">
-        <v>778046</v>
+        <v>1803036</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45139.29166666666</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>21.72035</v>
+      </c>
+      <c r="D232" t="n">
+        <v>22.21365</v>
+      </c>
+      <c r="E232" t="n">
+        <v>21.703</v>
+      </c>
+      <c r="F232" t="n">
+        <v>22.04545</v>
+      </c>
+      <c r="G232" t="n">
+        <v>384468</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.29166666666</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.29166666666</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -6239,16 +6239,16 @@
         <v>21.72035</v>
       </c>
       <c r="D232" t="n">
-        <v>22.21365</v>
+        <v>22.2197</v>
       </c>
       <c r="E232" t="n">
         <v>21.703</v>
       </c>
       <c r="F232" t="n">
-        <v>22.04545</v>
+        <v>22.172</v>
       </c>
       <c r="G232" t="n">
-        <v>384468</v>
+        <v>1423833</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6239,16 +6239,91 @@
         <v>21.72035</v>
       </c>
       <c r="D232" t="n">
-        <v>22.2197</v>
+        <v>22.427</v>
       </c>
       <c r="E232" t="n">
         <v>21.703</v>
       </c>
       <c r="F232" t="n">
-        <v>22.172</v>
+        <v>22.1976</v>
       </c>
       <c r="G232" t="n">
-        <v>1423833</v>
+        <v>1905910</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45170.29166666666</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>22.1976</v>
+      </c>
+      <c r="D233" t="n">
+        <v>23.23755</v>
+      </c>
+      <c r="E233" t="n">
+        <v>22.15895</v>
+      </c>
+      <c r="F233" t="n">
+        <v>23.09665</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1446802</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45201.33333333334</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>23.09665</v>
+      </c>
+      <c r="D234" t="n">
+        <v>23.54365</v>
+      </c>
+      <c r="E234" t="n">
+        <v>22.9725</v>
+      </c>
+      <c r="F234" t="n">
+        <v>23.2365</v>
+      </c>
+      <c r="G234" t="n">
+        <v>2037564</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45231.33333333334</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>23.2365</v>
+      </c>
+      <c r="D235" t="n">
+        <v>23.45305</v>
+      </c>
+      <c r="E235" t="n">
+        <v>22.67515</v>
+      </c>
+      <c r="F235" t="n">
+        <v>22.97175</v>
+      </c>
+      <c r="G235" t="n">
+        <v>727540</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -6317,13 +6317,13 @@
         <v>23.45305</v>
       </c>
       <c r="E235" t="n">
-        <v>22.67515</v>
+        <v>22.4321</v>
       </c>
       <c r="F235" t="n">
-        <v>22.97175</v>
+        <v>22.4908</v>
       </c>
       <c r="G235" t="n">
-        <v>727540</v>
+        <v>1075666</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -1,40 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="8">
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>OANDA:USDCZK</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +81,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,5907 +400,5419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
         <v>38139.29166666666</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>25.6855</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>26.4477</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>25.338</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>26.166</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>44</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>38169.29166666666</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>26.166</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>26.388</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>25.051</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>26.353</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
         <v>38201.29166666666</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>26.353</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>26.5005</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>25.3952</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>26.1364</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>44</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
         <v>38231.29166666666</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>26.1364</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>26.343</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>25.374</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>25.374</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>44</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
         <v>38261.29166666666</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>25.374</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>25.6516</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>24.684</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>24.7819</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>40</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
         <v>38292.375</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>24.7819</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>24.7819</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>23.3073</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>23.3204</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>44</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
         <v>38322.375</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>23.3204</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>23.3204</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>22.3149</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>22.4167</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>46</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
         <v>38355.375</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>22.4167</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>23.4989</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>22.4035</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>23.0823</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1131437</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
         <v>38384.375</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>23.0823</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>23.5619</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>22.3564</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>22.4439</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>903718</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
         <v>38412.375</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
         <v>22.4439</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>23.4387</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>21.8112</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>23.1797</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>995834</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
         <v>38443.33333333334</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
         <v>23.1797</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>23.7734</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>22.9323</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>23.7337</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>972917</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
         <v>38474.29166666666</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>23.7337</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>24.7143</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>23.068</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>24.6721</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>897162</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
         <v>38504.29166666666</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
         <v>24.6721</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>25.0459</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>24.3472</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>24.8512</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1123744</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
         <v>38534.29166666666</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
         <v>24.8512</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>25.4699</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>24.6112</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>24.8911</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1075183</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
         <v>38565.29166666666</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
         <v>24.8911</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>24.9154</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>23.5548</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>23.8127</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1125029</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
         <v>38596.29166666666</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
         <v>23.8127</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>24.6882</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>23.0958</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>24.6279</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1114825</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
         <v>38628.29166666666</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>24.6279</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>25.0496</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>24.3515</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>24.7203</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1046370</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
         <v>38657.375</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>24.7203</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>25.1949</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>24.3866</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>24.5509</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>1064333</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
         <v>38687.375</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
         <v>24.5509</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>24.8055</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>24.0298</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>24.5527</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>972061</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
         <v>38719.375</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
         <v>24.5527</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>24.6096</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>23.047</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>23.332</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>642844</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
         <v>38749.375</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
         <v>23.332</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>24.1242</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>23.3094</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>23.7477</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>236745</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
         <v>38777.375</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
         <v>23.7477</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>24.2981</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>23.3622</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>23.4923</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>293093</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
         <v>38810.29166666666</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
         <v>23.4923</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>23.7532</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>22.539</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>22.5582</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>261183</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
         <v>38838.29166666666</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
         <v>22.5582</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>22.6779</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>21.7911</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>22.0708</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>449661</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
         <v>38869.29166666666</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
         <v>22.0708</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>22.8333</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>21.7742</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>22.2852</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>399657</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
         <v>38901.29166666666</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
         <v>22.2852</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>22.8422</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>22.1162</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>22.3176</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>342372</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
         <v>38930.29166666666</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
         <v>22.3176</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>22.4081</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>21.7117</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>22.0525</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>356143</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
         <v>38961.29166666666</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
         <v>22.0525</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>22.5513</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>21.90305</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>22.334</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>334542</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
         <v>38992.29166666666</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
         <v>22.334</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>22.6581</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>22.013</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>22.0501</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>362135</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
         <v>39022.375</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
         <v>22.0501</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>22.1287</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>21.0006</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>21.0553</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>396874</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
         <v>39052.375</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
         <v>21.0553</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>21.2956</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>20.7402</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>20.8256</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>525000</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
         <v>39083.375</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
         <v>20.8256</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>21.8963</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>20.6444</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>21.5672</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>713095</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
         <v>39114.375</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
         <v>21.5672</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>21.8827</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>21.2982</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>21.3425</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>507123</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
         <v>39142.375</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
         <v>21.3425</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>21.5567</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>20.7492</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>20.9716</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>479550</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
         <v>39174.29166666666</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
         <v>20.9716</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>21.00917</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>20.51134</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>20.65871</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>460672</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
         <v>39203.29166666666</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
         <v>20.65871</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>21.14845</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>20.61389</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>21.02548</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>594795</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
         <v>39234.29166666666</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
         <v>21.02548</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>21.54184</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>20.93886</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>21.22814</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>421288</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
         <v>39265.29166666666</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
         <v>21.22814</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>21.25281</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>20.33524</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>20.51484</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>421492</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
         <v>39295.29166666666</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
         <v>20.51484</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>20.81445</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>20.20103</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>20.31698</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>598523</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
         <v>39328.29166666666</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
         <v>20.31698</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>20.40515</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>19.27566</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>19.31031</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>420332</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
         <v>39356.29166666666</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
         <v>19.31031</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>19.62023</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>18.56236</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>18.6102</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>537302</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
         <v>39387.33333333334</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
         <v>18.6102</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>18.77944</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>17.72321</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>17.93024</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>709512</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
         <v>39419.375</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
         <v>17.93024</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>18.50239</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>17.63514</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>18.17449</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>568089</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
         <v>39448.375</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
         <v>18.17449</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>18.3303</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>17.33708</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>17.505</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>829672</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
         <v>39479.375</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
         <v>17.505</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>17.8436</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>16.4925</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>16.5405</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>583697</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="2">
         <v>39510.375</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
         <v>16.5405</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>16.5675</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>15.745</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>15.981</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>511782</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
         <v>39539.33333333334</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
         <v>15.981</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>16.25365</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>15.55225</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>16.159</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>588629</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="2">
         <v>39569.29166666666</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
         <v>16.159</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>16.474</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>15.8565</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>16.096</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>543526</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="2">
         <v>39601.29166666666</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
         <v>16.096</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>16.1485</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>15.0875</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>15.162</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>573597</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="2">
         <v>39630.29166666666</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
         <v>15.162</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>15.4515</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>14.3835</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>15.3525</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>890176</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="2">
         <v>39661.29166666666</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
         <v>15.3525</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>16.933</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>15.30825</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>16.9015</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>1272633</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="2">
         <v>39692.29166666666</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
         <v>16.9015</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>17.7655</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>16.086</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>17.3815</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>1634377</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
         <v>39722.29166666666</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
         <v>17.3815</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>20.6095</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>17.3189</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>18.8984</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>2107814</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="2">
         <v>39755.375</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
         <v>18.8984</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>20.7475</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>18.4434</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>19.9904</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>1912930</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="2">
         <v>39783.375</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
         <v>19.9904</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>20.5645</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>18.0023</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>19.2195</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>1826077</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="2">
         <v>39814.375</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
         <v>19.2195</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>22.0971</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>18.916</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>21.8177</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>1966863</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="2">
         <v>39846.375</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
         <v>21.8177</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>23.5778</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>21.0372</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>22.1909</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>2038826</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="2">
         <v>39874.375</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
         <v>22.1909</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>22.7016</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>19.3563</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>20.6525</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>2202673</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="2">
         <v>39904.33333333334</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
         <v>20.6525</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>21.1159</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>19.5013</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>20.2179</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>1911079</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="2">
         <v>39934.29166666666</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
         <v>20.2179</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>20.2522</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>18.971</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>19.0394</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>1742497</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="2">
         <v>39965.29166666666</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
         <v>19.0394</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>19.5676</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>18.29812</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>18.48466</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>1838392</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="2">
         <v>39995.29166666666</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
         <v>18.48466</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>18.88927</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>17.79467</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>17.924</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>789498</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="2">
         <v>40028.29166666666</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
         <v>17.924</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>18.35273</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>17.62476</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>17.76671</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>657808</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="2">
         <v>40057.29166666666</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
         <v>17.76671</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>18.15505</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>16.91478</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>17.2466</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>619292</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="2">
         <v>40087.29166666666</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
         <v>17.2466</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>18.11518</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>17.14317</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>18.02196</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>574948</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="2">
         <v>40119.375</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
         <v>18.02196</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>18.06498</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>16.86946</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>17.42979</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>510274</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="2">
         <v>40148.375</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
         <v>17.42979</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>18.5224</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>17.02443</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>18.4621</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>465661</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="2">
         <v>40179.375</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
         <v>18.4621</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>18.91863</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>17.87089</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>18.91084</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>542149</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="2">
         <v>40210.375</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
         <v>18.91084</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>19.3445</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>18.47</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>19.0246</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>549792</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="2">
         <v>40238.375</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
         <v>19.0246</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>19.24405</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>18.40861</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>18.7975</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>498982</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="2">
         <v>40269.33333333334</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
         <v>18.7975</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>19.5302</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>18.31661</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>19.27389</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>497835</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="2">
         <v>40301.29166666666</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
         <v>19.27389</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>21.26325</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>19.163</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>20.73176</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>1018023</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="2">
         <v>40330.29166666666</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
         <v>20.73176</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>21.87318</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>20.59045</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>21.00381</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>788836</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="2">
         <v>40360.29166666666</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
         <v>21.00381</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>21.13452</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>18.85902</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>18.99796</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>588009</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="2">
         <v>40392.29166666666</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
         <v>18.99796</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>19.7839</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>18.58015</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>19.53091</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>528274</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="2">
         <v>40422.29166666666</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
         <v>19.53091</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>19.55485</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>17.9742</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>18.04211</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>518415</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="2">
         <v>40452.29166666666</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
         <v>18.04211</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>18.05386</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>17.27321</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>17.6601</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>564932</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="2">
         <v>40483.33333333334</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
         <v>17.6601</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>19.2288</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>17.06303</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>19.21547</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>741628</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="2">
         <v>40513.375</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
         <v>19.21547</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>19.3969</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>18.60725</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>18.715</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>670604</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="2">
         <v>40546.375</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
         <v>18.715</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>19.13646</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>17.58885</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>17.6641</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>686287</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="2">
         <v>40575.375</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
         <v>17.6641</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>18.13396</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>17.33764</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>17.64255</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>460632</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="2">
         <v>40603.375</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
         <v>17.64255</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>17.78276</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>17.13401</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>17.33108</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>447529</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="2">
         <v>40634.33333333334</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
         <v>17.33108</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>17.39746</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>16.19809</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>16.3298</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>376649</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="2">
         <v>40665.29166666666</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
         <v>16.3298</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>17.58556</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>16.17952</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>17.06004</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>649208</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="2">
         <v>40695.29166666666</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
         <v>17.06004</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>17.34342</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>16.45538</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>16.78858</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>618081</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="2">
         <v>40725.29166666666</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
         <v>16.78858</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>17.57422</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>16.62044</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>16.7956</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>630952</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="2">
         <v>40756.29166666666</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
         <v>16.7956</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>17.27674</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>16.53459</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>16.78783</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>850345</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="2">
         <v>40787.29166666666</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
         <v>16.78783</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>18.60747</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>16.76099</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>18.43749</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>881884</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="2">
         <v>40819.33333333334</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
         <v>18.43749</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>18.9417</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>17.30319</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>17.95349</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>757696</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="2">
         <v>40848.33333333334</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
         <v>17.95349</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>19.73811</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>17.91993</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>18.8077</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>801736</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="2">
         <v>40878.375</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
         <v>18.8077</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>20.17681</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>18.58984</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>19.73754</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>494970</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="2">
         <v>40910.375</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
         <v>19.73754</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>20.43865</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>18.98271</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>19.35309</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>612114</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="2">
         <v>40940.375</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
         <v>19.35309</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>19.51231</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>18.42332</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>18.68537</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>571164</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="2">
         <v>40969.375</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
         <v>18.68537</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>19.00847</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>18.3647</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>18.5916</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>413730</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="2">
         <v>41001.29166666666</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
         <v>18.5916</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>19.1293</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>18.41145</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>18.84038</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>367877</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="2">
         <v>41030.29166666666</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
         <v>18.84038</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>20.91518</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>18.74199</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>20.79841</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>581856</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="2">
         <v>41061.29166666666</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
         <v>20.79841</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>21.00131</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>19.8664</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>20.15223</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>616257</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="2">
         <v>41092.29166666666</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
         <v>20.15223</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>21.23598</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>20.06598</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>20.58563</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>421173</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="2">
         <v>41122.29166666666</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
         <v>20.58563</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>20.87929</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>19.65216</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>19.76389</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>376185</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="2">
         <v>41155.29166666666</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
         <v>19.76389</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>19.89827</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>18.51427</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>19.54351</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>339430</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="2">
         <v>41183.29166666666</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
         <v>19.54351</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>19.63464</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>18.82814</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>19.36177</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>318595</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="2">
         <v>41214.33333333334</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
         <v>19.36177</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>20.11932</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>19.31985</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>19.44122</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>298779</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:7">
+      <c r="A104" s="2">
         <v>41246.375</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
         <v>19.44122</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>19.57079</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>18.88418</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>19.01018</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>175608</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:7">
+      <c r="A105" s="2">
         <v>41275.375</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
         <v>19.01018</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>19.71081</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>18.85794</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>18.90334</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>319555</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:7">
+      <c r="A106" s="2">
         <v>41306.375</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
         <v>18.90334</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>19.67827</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>18.55092</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>19.65598</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>345631</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:7">
+      <c r="A107" s="2">
         <v>41334.375</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
         <v>19.65598</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>20.23918</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>19.34424</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>20.07622</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>358220</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:7">
+      <c r="A108" s="2">
         <v>41365.33333333334</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
         <v>20.07622</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>20.25807</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>19.55247</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>19.59912</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>379378</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:7">
+      <c r="A109" s="2">
         <v>41395.29166666666</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
         <v>19.59912</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>20.39496</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>19.40989</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>19.79326</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>399576</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:7">
+      <c r="A110" s="2">
         <v>41428.29166666666</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
         <v>19.79326</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>20.09402</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>19.09254</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>19.98846</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>2376417</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:7">
+      <c r="A111" s="2">
         <v>41456.29166666666</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
         <v>19.98846</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>20.326</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>19.3556</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>19.49993</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>1671786</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:7">
+      <c r="A112" s="2">
         <v>41487.29166666666</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
         <v>19.49993</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>19.70666</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>19.13308</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>19.47552</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>1309803</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:7">
+      <c r="A113" s="2">
         <v>41519.29166666666</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
         <v>19.47552</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>19.67703</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>18.92589</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>18.99106</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>1207346</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:7">
+      <c r="A114" s="2">
         <v>41548.29166666666</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
         <v>18.99106</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>19.07225</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>18.58727</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>18.9877</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>1296525</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:7">
+      <c r="A115" s="2">
         <v>41579.33333333334</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
         <v>18.9877</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>20.359</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>18.97735</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>20.1361</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>1189157</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:7">
+      <c r="A116" s="2">
         <v>41610.375</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
         <v>20.1361</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>20.30204</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>19.77576</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>19.82846</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>843576</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:7">
+      <c r="A117" s="2">
         <v>41640.375</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
         <v>19.82846</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>20.44606</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>19.82846</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>20.41012</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>1187409</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:7">
+      <c r="A118" s="2">
         <v>41673.375</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
         <v>20.41012</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>20.43806</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>19.76648</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>19.79504</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>905642</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
         <v>41701.375</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
         <v>19.79504</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>19.99263</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>19.58918</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>19.93432</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>859505</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
         <v>41730.33333333334</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
         <v>19.93432</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>20.07067</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>19.7299</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>19.79331</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>741267</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
         <v>41760.29166666666</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
         <v>19.79331</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>20.23471</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>19.58264</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>20.16188</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>685472</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
         <v>41792.29166666666</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
         <v>20.16188</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>20.31994</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>20.03562</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>20.04612</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>817321</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
         <v>41821.29166666666</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
         <v>20.04612</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>20.69126</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>20.03008</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>20.66894</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>647906</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
         <v>41852.29166666666</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
         <v>20.66894</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>21.19362</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>20.57209</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>21.11509</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>831671</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
         <v>41883.29166666666</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
         <v>21.11509</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>21.87428</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>21.01755</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>21.77024</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>1201116</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
         <v>41913.29166666666</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
         <v>21.77024</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>22.2645</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>21.37382</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>22.19594</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>1804351</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
         <v>41946.375</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
         <v>22.19594</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>22.45712</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>21.9859</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>22.18224</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>1618040</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:7">
+      <c r="A128" s="2">
         <v>41974.375</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
         <v>22.18224</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>22.93512</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>21.94084</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>22.89672</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>1496019</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:7">
+      <c r="A129" s="2">
         <v>42005.375</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
         <v>22.89672</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>25.01612</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>22.8816</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>24.58649</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>2179841</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:7">
+      <c r="A130" s="2">
         <v>42037.375</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
         <v>24.58649</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>24.62638</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>23.83372</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>24.56876</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>1789402</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
         <v>42065.375</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
         <v>24.56876</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>26.09296</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>24.44848</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>25.6778</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>2732016</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
         <v>42095.33333333334</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
         <v>25.6778</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>26.03306</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>24.35974</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>24.46932</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>2905427</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
         <v>42125.29166666666</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
         <v>24.46932</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>25.32166</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>23.88042</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>24.9498</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>2760160</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
         <v>42156.29166666666</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
         <v>24.9498</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>25.2026</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>23.8088</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>24.4862</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>3063520</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
         <v>42186.29166666666</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
         <v>24.4862</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>25.05762</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>24.17158</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>24.64846</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>2203561</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
         <v>42219.29166666666</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
         <v>24.64846</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>24.92599</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>23.09487</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>24.11826</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>2114416</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
         <v>42248.29166666666</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
         <v>24.11826</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>24.4492</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>23.6189</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>24.3274</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>1962221</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
         <v>42278.29166666666</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
         <v>24.3274</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>24.87144</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>23.5747</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>24.61858</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>2868367</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
         <v>42310.375</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
         <v>24.61858</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>25.61251</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>24.51269</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>25.58871</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>3458412</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
         <v>42339.375</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
         <v>25.58871</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>25.69838</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>24.43626</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>24.85862</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>3954014</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
         <v>42370.375</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
         <v>24.85862</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>25.22912</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>24.59971</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>24.9449</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>2973193</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
         <v>42401.375</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
         <v>24.9449</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>24.98738</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>23.76126</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>24.89616</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>3127750</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
         <v>42430.375</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
         <v>24.89616</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>24.98418</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>23.69504</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>23.76138</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>2803068</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
         <v>42461.33333333334</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
         <v>23.76138</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>24.10948</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>23.57176</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>23.61844</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>2412309</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
         <v>42492.29166666666</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
         <v>23.61844</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>24.3504</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>23.27226</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>24.27472</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>2158926</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
         <v>42522.29166666666</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
         <v>24.27472</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>24.84909</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>23.6708</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>24.38454</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>3629474</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
         <v>42552.29166666666</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
         <v>24.38454</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>24.67114</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>24.15592</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>24.19502</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>2678057</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
         <v>42583.29166666666</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
         <v>24.19502</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>24.46156</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>23.77318</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>24.22092</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>2207179</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
         <v>42614.29166666666</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
         <v>24.22092</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>24.29138</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>23.85551</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>24.03545</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>2279557</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
         <v>42646.33333333334</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
         <v>24.03545</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>24.90199</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>24.03242</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>24.608</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>2947256</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
         <v>42675.33333333334</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
         <v>24.608</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>25.6964</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>23.92097</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>25.5439</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>5163803</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
         <v>42705.375</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
         <v>25.5439</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>26.10102</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>24.86753</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>25.6873</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>4177137</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
         <v>42737.375</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
         <v>25.6873</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>26.1295</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>24.9924</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>25.02546</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>7732140</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
         <v>42767.375</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
         <v>25.02546</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>25.74949</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>24.95371</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>25.54982</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>5619416</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
         <v>42795.375</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
         <v>25.54982</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>25.74596</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>24.77535</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>25.37076</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>5304237</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
         <v>42828.29166666666</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
         <v>25.37076</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>25.47506</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>24.51487</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>24.63117</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>3746163</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
         <v>42856.29166666666</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
         <v>24.63117</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>24.71007</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>23.4176</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>23.43864</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>5957686</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
         <v>42887.29166666666</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
         <v>23.43864</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>23.6917</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>22.85486</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>22.86467</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>5906277</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
         <v>42919.29166666666</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
         <v>22.86467</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>23.1003</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>22.01736</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>22.02564</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>4704977</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
         <v>42948.29166666666</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
         <v>22.02564</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>22.3894</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>21.63918</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>21.92423</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>4970402</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
         <v>42979.29166666666</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
         <v>21.92423</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>22.26214</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>21.6058</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>21.98795</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>4963681</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
         <v>43010.33333333334</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
         <v>21.98795</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>22.1943</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>21.61308</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>22.03208</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>3724471</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
         <v>43040.33333333334</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
         <v>22.03208</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>22.1523</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>21.25212</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>21.43578</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>3330194</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
         <v>43070.375</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
         <v>21.43578</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>21.88697</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>21.22884</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>21.28354</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>3281374</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
         <v>43101.375</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
         <v>21.28354</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>21.44307</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>20.22672</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>20.35826</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>4322481</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
         <v>43132.375</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
         <v>20.35826</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>20.84958</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>20.10724</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>20.83706</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166">
         <v>4449057</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
         <v>43160.375</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
         <v>20.83706</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>20.90994</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>20.39418</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>20.5599</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>3863919</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
         <v>43192.29166666666</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
         <v>20.5599</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>21.203</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>20.34748</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>21.18878</v>
       </c>
-      <c r="G168" t="n">
+      <c r="G168">
         <v>3018575</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
         <v>43221.29166666666</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
         <v>21.18878</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>22.51924</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>21.17886</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>22.08551</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169">
         <v>6822099</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
         <v>43252.29166666666</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
         <v>22.08551</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>22.57309</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>21.64675</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170">
         <v>22.22981</v>
       </c>
-      <c r="G170" t="n">
+      <c r="G170">
         <v>7120679</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
         <v>43283.29166666666</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
         <v>22.22981</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>22.51756</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>21.78324</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>21.87174</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171">
         <v>5249991</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
         <v>43313.29166666666</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
         <v>21.87174</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>22.8421</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>21.85548</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>22.2081</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G172">
         <v>5387728</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
         <v>43346.29166666666</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
         <v>22.2081</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>22.32228</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>21.63185</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>22.20544</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G173">
         <v>4433695</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
         <v>43374.29166666666</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
         <v>22.20544</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>22.95009</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>22.16168</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>22.92121</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>5977854</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
         <v>43405.33333333334</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
         <v>22.92121</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>23.13358</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>22.4806</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>22.95476</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>7856602</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
         <v>43437.375</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
         <v>22.95476</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>22.95476</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>22.42</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>22.42772</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G176">
         <v>4713685</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
         <v>43466.375</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
         <v>22.42772</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>22.79098</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>22.15482</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177">
         <v>22.49852</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G177">
         <v>5082164</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
         <v>43497.375</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
         <v>22.49852</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>22.9643</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>22.34019</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>22.54009</v>
       </c>
-      <c r="G178" t="n">
+      <c r="G178">
         <v>3561834</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
         <v>43525.375</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179">
         <v>22.54009</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>23.03204</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>22.39774</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>23.01747</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179">
         <v>5101132</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
         <v>43556.33333333334</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
         <v>23.01747</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>23.1495</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>22.62472</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180">
         <v>22.8563</v>
       </c>
-      <c r="G180" t="n">
+      <c r="G180">
         <v>5083103</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
         <v>43586.29166666666</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
         <v>22.8563</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>23.24676</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>22.75414</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181">
         <v>23.1382</v>
       </c>
-      <c r="G181" t="n">
+      <c r="G181">
         <v>3390309</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
         <v>43619.29166666666</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
         <v>23.1382</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>23.16178</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>22.31382</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>22.36124</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>3864783</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
         <v>43647.29166666666</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
         <v>22.36124</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>23.24266</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>22.36124</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>23.18998</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G183">
         <v>3505222</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
         <v>43678.29166666666</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
         <v>23.18998</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>23.66996</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>22.90826</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184">
         <v>23.62924</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G184">
         <v>3880131</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
         <v>43710.29166666666</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
         <v>23.61638</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>23.71688</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>23.26636</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185">
         <v>23.66634</v>
       </c>
-      <c r="G185" t="n">
+      <c r="G185">
         <v>2574366</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
         <v>43739.29166666666</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186">
         <v>23.66634</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>23.72404</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>22.81678</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>22.87934</v>
       </c>
-      <c r="G186" t="n">
+      <c r="G186">
         <v>2671778</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
         <v>43770.33333333334</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
         <v>22.87934</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>23.27184</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>22.82895</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>23.18346</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G187">
         <v>1760513</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
         <v>43801.375</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188">
         <v>23.18346</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>23.21588</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>22.60478</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>22.67246</v>
       </c>
-      <c r="G188" t="n">
+      <c r="G188">
         <v>1859862</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
         <v>43831.375</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
         <v>22.67246</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>22.9662</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>22.45955</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189">
         <v>22.73242</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G189">
         <v>1891257</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
         <v>43864.375</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
         <v>22.73242</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>23.35662</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>22.61302</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190">
         <v>23.0865</v>
       </c>
-      <c r="G190" t="n">
+      <c r="G190">
         <v>2264040</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
         <v>43892.375</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
         <v>23.0865</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>26.07699</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>22.16699</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>24.80501</v>
       </c>
-      <c r="G191" t="n">
+      <c r="G191">
         <v>7403432</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
         <v>43922.33333333334</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
         <v>24.80501</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>25.79758</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>24.40487</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192">
         <v>24.77151</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G192">
         <v>3269933</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
         <v>43952.29166666666</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
         <v>24.77151</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>25.65224</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>24.1499</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>24.26113</v>
       </c>
-      <c r="G193" t="n">
+      <c r="G193">
         <v>2897330</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
         <v>43983.29166666666</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
         <v>24.26113</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>24.26824</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>23.22868</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194">
         <v>23.7417</v>
       </c>
-      <c r="G194" t="n">
+      <c r="G194">
         <v>4310432</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
         <v>44013.29166666666</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
         <v>23.7417</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>23.84458</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>21.98924</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>22.27926</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G195">
         <v>3248112</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
         <v>44046.29166666666</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
         <v>22.27926</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>22.49486</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>21.81136</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F196">
         <v>22.00242</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G196">
         <v>3031708</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
         <v>44075.29166666666</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
         <v>22.00242</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>23.39298</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>21.80389</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>23.10129</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197">
         <v>5202584</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
         <v>44105.29166666666</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
         <v>23.10129</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>23.49686</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>22.80794</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198">
         <v>23.4071</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G198">
         <v>2263786</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
         <v>44137.375</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199">
         <v>23.4071</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>23.4622</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>21.79935</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>21.99865</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G199">
         <v>2629126</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
         <v>44166.375</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
         <v>21.99865</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>22.02545</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>21.2929</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200">
         <v>21.48515</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G200">
         <v>2298628</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
         <v>44197.375</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
         <v>21.48515</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>21.7321</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>21.1368</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201">
         <v>21.4565</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G201">
         <v>2141967</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
         <v>44228.375</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
         <v>21.4565</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>21.7002</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>21.1135</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202">
         <v>21.66995</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G202">
         <v>2302461</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
         <v>44256.375</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
         <v>21.66995</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>22.34895</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>21.4293</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203">
         <v>22.2697</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G203">
         <v>2929131</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
         <v>44287.33333333334</v>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
         <v>22.2697</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>22.29776</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>21.27525</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>21.5235</v>
       </c>
-      <c r="G204" t="n">
+      <c r="G204">
         <v>2492230</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
         <v>44319.29166666666</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
         <v>21.5235</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>21.58115</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>20.7176</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205">
         <v>20.80115</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G205">
         <v>1993401</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
         <v>44348.29166666666</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
         <v>20.80115</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>21.59905</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>20.7424</v>
       </c>
-      <c r="F206" t="n">
+      <c r="F206">
         <v>21.5148</v>
       </c>
-      <c r="G206" t="n">
+      <c r="G206">
         <v>1632426</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
         <v>44378.29166666666</v>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
         <v>21.5148</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>21.9219</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>21.3863</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>21.4791</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G207">
         <v>2915514</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
         <v>44410.29166666666</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
         <v>21.4791</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>21.9785</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>21.2986</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>21.5172</v>
       </c>
-      <c r="G208" t="n">
+      <c r="G208">
         <v>3697515</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
         <v>44440.29166666666</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
         <v>21.5172</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>22.06975</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>21.3127</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F209">
         <v>21.8898</v>
       </c>
-      <c r="G209" t="n">
+      <c r="G209">
         <v>3778270</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
         <v>44470.29166666666</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
         <v>21.8898</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>22.24465</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>21.74005</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>22.18955</v>
       </c>
-      <c r="G210" t="n">
+      <c r="G210">
         <v>3021802</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
         <v>44501.33333333334</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
         <v>22.18955</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>22.93245</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>21.7115</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>22.50425</v>
       </c>
-      <c r="G211" t="n">
+      <c r="G211">
         <v>4173373</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
         <v>44531.375</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
         <v>22.50425</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>22.68565</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>21.8347</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>21.88305</v>
       </c>
-      <c r="G212" t="n">
+      <c r="G212">
         <v>4411900</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
         <v>44564.375</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
         <v>21.88305</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>22.01045</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>21.1215</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>21.66495</v>
       </c>
-      <c r="G213" t="n">
+      <c r="G213">
         <v>5191131</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
         <v>44593.375</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
         <v>21.66495</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>22.52075</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>21.1267</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214">
         <v>22.43155</v>
       </c>
-      <c r="G214" t="n">
+      <c r="G214">
         <v>5720803</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
         <v>44621.375</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
         <v>22.43155</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>23.9246</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>21.8394</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>22.0627</v>
       </c>
-      <c r="G215" t="n">
+      <c r="G215">
         <v>4148556</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
         <v>44652.33333333334</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
         <v>22.0627</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>23.456</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>21.96374</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216">
         <v>23.3422</v>
       </c>
-      <c r="G216" t="n">
+      <c r="G216">
         <v>4472070</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
         <v>44683.29166666666</v>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
         <v>23.3422</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>24.37176</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>22.8816</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217">
         <v>23.02835</v>
       </c>
-      <c r="G217" t="n">
+      <c r="G217">
         <v>6980946</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
         <v>44713.29166666666</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
         <v>23.02835</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>23.88035</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218">
         <v>22.89305</v>
       </c>
-      <c r="F218" t="n">
+      <c r="F218">
         <v>23.59865</v>
       </c>
-      <c r="G218" t="n">
+      <c r="G218">
         <v>4505543</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
         <v>44743.29166666666</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
         <v>23.59865</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>24.60775</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>23.5966</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F219">
         <v>24.06915</v>
       </c>
-      <c r="G219" t="n">
+      <c r="G219">
         <v>3382574</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
         <v>44774.29166666666</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
         <v>24.06915</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>24.9121</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>23.4553</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220">
         <v>24.37885</v>
       </c>
-      <c r="G220" t="n">
+      <c r="G220">
         <v>3390318</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
         <v>44805.29166666666</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
         <v>24.37885</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>25.8833</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>24.08395</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221">
         <v>25.0882</v>
       </c>
-      <c r="G221" t="n">
+      <c r="G221">
         <v>4077743</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
         <v>44837.33333333334</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
         <v>25.0882</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>25.5129</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>24.29056</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>24.7693</v>
       </c>
-      <c r="G222" t="n">
+      <c r="G222">
         <v>4251158</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
         <v>44866.33333333334</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223">
         <v>24.7693</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>25.21425</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>23.1991</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223">
         <v>23.3908</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G223">
         <v>3666525</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
         <v>44896.375</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
         <v>23.3908</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>23.42895</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>22.5192</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224">
         <v>22.55205</v>
       </c>
-      <c r="G224" t="n">
+      <c r="G224">
         <v>3041258</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
         <v>44928.375</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
         <v>22.55205</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>22.9552</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>21.753</v>
       </c>
-      <c r="F225" t="n">
+      <c r="F225">
         <v>21.8851</v>
       </c>
-      <c r="G225" t="n">
+      <c r="G225">
         <v>3324912</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
         <v>44958.375</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
         <v>21.8851</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>22.4581</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>21.55905</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>22.21615</v>
       </c>
-      <c r="G226" t="n">
+      <c r="G226">
         <v>2424237</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
         <v>44986.375</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227">
         <v>22.21615</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>22.85205</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>21.5299</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>21.64365</v>
       </c>
-      <c r="G227" t="n">
+      <c r="G227">
         <v>2542631</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
         <v>45019.29166666666</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
         <v>21.64365</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>21.77725</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>21.0002</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228">
         <v>21.35805</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G228">
         <v>1474987</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
         <v>45047.29166666666</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
         <v>21.35805</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>22.32265</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>21.1644</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>22.1908</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G229">
         <v>1568853</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
         <v>45078.29166666666</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230">
         <v>22.1908</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>22.24515</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>21.4818</v>
       </c>
-      <c r="F230" t="n">
+      <c r="F230">
         <v>21.7749</v>
       </c>
-      <c r="G230" t="n">
+      <c r="G230">
         <v>1549990</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
         <v>45110.29166666666</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231">
         <v>21.7749</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>22.0456</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>21.06865</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>21.72035</v>
       </c>
-      <c r="G231" t="n">
+      <c r="G231">
         <v>1803036</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
         <v>45139.29166666666</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232">
         <v>21.72035</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>22.427</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>21.703</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>22.1976</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G232">
         <v>1905910</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
         <v>45170.29166666666</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233">
         <v>22.1976</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>23.23755</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>22.15895</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>23.09665</v>
       </c>
-      <c r="G233" t="n">
+      <c r="G233">
         <v>1446802</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
         <v>45201.33333333334</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234">
         <v>23.09665</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>23.54365</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>22.9725</v>
       </c>
-      <c r="F234" t="n">
+      <c r="F234">
         <v>23.2365</v>
       </c>
-      <c r="G234" t="n">
+      <c r="G234">
         <v>2037564</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
         <v>45231.33333333334</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235">
         <v>23.2365</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>23.45305</v>
       </c>
-      <c r="E235" t="n">
-        <v>22.4321</v>
-      </c>
-      <c r="F235" t="n">
-        <v>22.4908</v>
-      </c>
-      <c r="G235" t="n">
-        <v>1075666</v>
+      <c r="E235">
+        <v>22.32305</v>
+      </c>
+      <c r="F235">
+        <v>22.4621</v>
+      </c>
+      <c r="G235">
+        <v>1251316</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5803,13 +5803,36 @@
         <v>23.45305</v>
       </c>
       <c r="E235">
-        <v>22.32305</v>
+        <v>21.99615</v>
       </c>
       <c r="F235">
-        <v>22.4621</v>
+        <v>22.33085</v>
       </c>
       <c r="G235">
-        <v>1251316</v>
+        <v>1787889</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <v>22.33085</v>
+      </c>
+      <c r="D236">
+        <v>22.61835</v>
+      </c>
+      <c r="E236">
+        <v>22.2777</v>
+      </c>
+      <c r="F236">
+        <v>22.55955</v>
+      </c>
+      <c r="G236">
+        <v>245944</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -1,72 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="8">
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>OANDA:USDCZK</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,5442 +426,5957 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>38139.29166666666</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>25.6855</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>26.4477</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>25.338</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>26.166</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>38169.29166666666</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>26.166</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>26.388</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>25.051</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>26.353</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>38201.29166666666</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>26.353</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>26.5005</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>25.3952</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>26.1364</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>38231.29166666666</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>26.1364</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>26.343</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>25.374</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>25.374</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>38261.29166666666</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>25.374</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>25.6516</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>24.684</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>24.7819</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>38292.375</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>24.7819</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>24.7819</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>23.3073</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>23.3204</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>38322.375</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>23.3204</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>23.3204</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>22.3149</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>22.4167</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>38355.375</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>22.4167</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>23.4989</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>22.4035</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>23.0823</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>1131437</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>38384.375</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>23.0823</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>23.5619</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>22.3564</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>22.4439</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>903718</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>38412.375</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>22.4439</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>23.4387</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>21.8112</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>23.1797</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>995834</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>38443.33333333334</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>23.1797</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>23.7734</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>22.9323</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>23.7337</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>972917</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>38474.29166666666</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>23.7337</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>24.7143</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>23.068</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>24.6721</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>897162</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>38504.29166666666</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>24.6721</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>25.0459</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>24.3472</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>24.8512</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>1123744</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>38534.29166666666</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>24.8512</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>25.4699</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>24.6112</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>24.8911</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>1075183</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>38565.29166666666</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>24.8911</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>24.9154</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>23.5548</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>23.8127</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>1125029</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>38596.29166666666</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>23.8127</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>24.6882</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>23.0958</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>24.6279</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>1114825</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>38628.29166666666</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>24.6279</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>25.0496</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>24.3515</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>24.7203</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>1046370</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>38657.375</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>24.7203</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>25.1949</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>24.3866</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>24.5509</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>1064333</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>38687.375</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>24.5509</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>24.8055</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>24.0298</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>24.5527</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>972061</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>38719.375</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>24.5527</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>24.6096</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>23.047</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>23.332</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>642844</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>38749.375</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>23.332</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>24.1242</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>23.3094</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>23.7477</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>236745</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>38777.375</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>23.7477</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>24.2981</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>23.3622</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>23.4923</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>293093</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>38810.29166666666</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>23.4923</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>23.7532</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>22.539</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>22.5582</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>261183</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>38838.29166666666</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>22.5582</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>22.6779</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>21.7911</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>22.0708</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>449661</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>38869.29166666666</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>22.0708</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>22.8333</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>21.7742</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>22.2852</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>399657</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>38901.29166666666</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>22.2852</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>22.8422</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>22.1162</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>22.3176</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>342372</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>38930.29166666666</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>22.3176</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>22.4081</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>21.7117</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>22.0525</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>356143</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>38961.29166666666</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>22.0525</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>22.5513</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>21.90305</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>22.334</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>334542</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>38992.29166666666</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>22.334</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>22.6581</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>22.013</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>22.0501</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>362135</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>39022.375</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>22.0501</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>22.1287</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>21.0006</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>21.0553</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>396874</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>39052.375</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>21.0553</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>21.2956</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>20.7402</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>20.8256</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>525000</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>39083.375</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>20.8256</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>21.8963</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>20.6444</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>21.5672</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>713095</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>39114.375</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>21.5672</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>21.8827</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>21.2982</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>21.3425</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>507123</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>39142.375</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>21.3425</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>21.5567</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>20.7492</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>20.9716</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>479550</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>39174.29166666666</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>20.9716</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>21.00917</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>20.51134</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>20.65871</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>460672</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>39203.29166666666</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>20.65871</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>21.14845</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>20.61389</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>21.02548</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>594795</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>39234.29166666666</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>21.02548</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>21.54184</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>20.93886</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>21.22814</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>421288</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>39265.29166666666</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>21.22814</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>21.25281</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>20.33524</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>20.51484</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>421492</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>39295.29166666666</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>20.51484</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>20.81445</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>20.20103</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>20.31698</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>598523</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>39328.29166666666</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>20.31698</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>20.40515</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>19.27566</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>19.31031</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>420332</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>39356.29166666666</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>19.31031</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>19.62023</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>18.56236</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>18.6102</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>537302</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>39387.33333333334</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>18.6102</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>18.77944</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>17.72321</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>17.93024</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>709512</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>39419.375</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>17.93024</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>18.50239</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>17.63514</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>18.17449</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>568089</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>39448.375</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>18.17449</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>18.3303</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>17.33708</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>17.505</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>829672</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>39479.375</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>17.505</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>17.8436</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>16.4925</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>16.5405</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>583697</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>39510.375</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>16.5405</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>16.5675</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>15.745</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>15.981</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>511782</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>39539.33333333334</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>15.981</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>16.25365</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>15.55225</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>16.159</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>588629</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>39569.29166666666</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>16.159</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>16.474</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>15.8565</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>16.096</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>543526</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>39601.29166666666</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>16.096</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>16.1485</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>15.0875</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>15.162</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>573597</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>39630.29166666666</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>15.162</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>15.4515</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>14.3835</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>15.3525</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>890176</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>39661.29166666666</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>15.3525</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>16.933</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>15.30825</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>16.9015</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>1272633</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>39692.29166666666</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>16.9015</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>17.7655</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>16.086</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>17.3815</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>1634377</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>39722.29166666666</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>17.3815</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>20.6095</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>17.3189</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>18.8984</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>2107814</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>39755.375</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>18.8984</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>20.7475</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>18.4434</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>19.9904</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>1912930</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>39783.375</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>19.9904</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>20.5645</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>18.0023</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>19.2195</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>1826077</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>39814.375</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>19.2195</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>22.0971</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>18.916</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>21.8177</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>1966863</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>39846.375</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
         <v>21.8177</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>23.5778</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>21.0372</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>22.1909</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>2038826</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>39874.375</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>22.1909</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>22.7016</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>19.3563</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>20.6525</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>2202673</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>39904.33333333334</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>20.6525</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>21.1159</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>19.5013</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>20.2179</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>1911079</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>39934.29166666666</v>
       </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>20.2179</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>20.2522</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>18.971</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>19.0394</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>1742497</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>39965.29166666666</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>19.0394</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>19.5676</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>18.29812</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>18.48466</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>1838392</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>39995.29166666666</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>18.48466</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>18.88927</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>17.79467</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>17.924</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>789498</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>40028.29166666666</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>17.924</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>18.35273</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>17.62476</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>17.76671</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>657808</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>40057.29166666666</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>17.76671</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>18.15505</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>16.91478</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>17.2466</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>619292</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>40087.29166666666</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>17.2466</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>18.11518</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>17.14317</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>18.02196</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="n">
         <v>574948</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>40119.375</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>18.02196</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>18.06498</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>16.86946</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>17.42979</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>510274</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>40148.375</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
         <v>17.42979</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>18.5224</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>17.02443</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>18.4621</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>465661</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>40179.375</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
         <v>18.4621</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>18.91863</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>17.87089</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>18.91084</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
         <v>542149</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>40210.375</v>
       </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>18.91084</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>19.3445</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>18.47</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>19.0246</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="n">
         <v>549792</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>40238.375</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
         <v>19.0246</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>19.24405</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>18.40861</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>18.7975</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>498982</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>40269.33333333334</v>
       </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>18.7975</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>19.5302</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>18.31661</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>19.27389</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>497835</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>40301.29166666666</v>
       </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
         <v>19.27389</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>21.26325</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>19.163</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>20.73176</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>1018023</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>40330.29166666666</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
         <v>20.73176</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>21.87318</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>20.59045</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>21.00381</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="n">
         <v>788836</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>40360.29166666666</v>
       </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>21.00381</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>21.13452</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>18.85902</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>18.99796</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="n">
         <v>588009</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>40392.29166666666</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
         <v>18.99796</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>19.7839</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>18.58015</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>19.53091</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="n">
         <v>528274</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>40422.29166666666</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
         <v>19.53091</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>19.55485</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>17.9742</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>18.04211</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>518415</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>40452.29166666666</v>
       </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
         <v>18.04211</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>18.05386</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>17.27321</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>17.6601</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="n">
         <v>564932</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>40483.33333333334</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>17.6601</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>19.2288</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>17.06303</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>19.21547</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>741628</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>40513.375</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>19.21547</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>19.3969</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>18.60725</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>18.715</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>670604</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>40546.375</v>
       </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>18.715</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>19.13646</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>17.58885</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>17.6641</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="n">
         <v>686287</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>40575.375</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>17.6641</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>18.13396</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>17.33764</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>17.64255</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>460632</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>40603.375</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>17.64255</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>17.78276</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>17.13401</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>17.33108</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="n">
         <v>447529</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>40634.33333333334</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>17.33108</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>17.39746</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>16.19809</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>16.3298</v>
       </c>
-      <c r="G84">
+      <c r="G84" t="n">
         <v>376649</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>40665.29166666666</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
         <v>16.3298</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>17.58556</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>16.17952</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
         <v>17.06004</v>
       </c>
-      <c r="G85">
+      <c r="G85" t="n">
         <v>649208</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>40695.29166666666</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>17.06004</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>17.34342</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>16.45538</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>16.78858</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>618081</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>40725.29166666666</v>
       </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>16.78858</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>17.57422</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>16.62044</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>16.7956</v>
       </c>
-      <c r="G87">
+      <c r="G87" t="n">
         <v>630952</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>40756.29166666666</v>
       </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>16.7956</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>17.27674</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>16.53459</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>16.78783</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>850345</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>40787.29166666666</v>
       </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>16.78783</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>18.60747</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>16.76099</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>18.43749</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="n">
         <v>881884</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>40819.33333333334</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>18.43749</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>18.9417</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>17.30319</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>17.95349</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="n">
         <v>757696</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>40848.33333333334</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
         <v>17.95349</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>19.73811</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>17.91993</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>18.8077</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="n">
         <v>801736</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>40878.375</v>
       </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
         <v>18.8077</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>20.17681</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>18.58984</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>19.73754</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="n">
         <v>494970</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>40910.375</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
         <v>19.73754</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>20.43865</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>18.98271</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
         <v>19.35309</v>
       </c>
-      <c r="G93">
+      <c r="G93" t="n">
         <v>612114</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>40940.375</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
         <v>19.35309</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>19.51231</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>18.42332</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>18.68537</v>
       </c>
-      <c r="G94">
+      <c r="G94" t="n">
         <v>571164</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>40969.375</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
         <v>18.68537</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>19.00847</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>18.3647</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>18.5916</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="n">
         <v>413730</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>41001.29166666666</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
         <v>18.5916</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>19.1293</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>18.41145</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>18.84038</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="n">
         <v>367877</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>41030.29166666666</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>18.84038</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>20.91518</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>18.74199</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>20.79841</v>
       </c>
-      <c r="G97">
+      <c r="G97" t="n">
         <v>581856</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>41061.29166666666</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
         <v>20.79841</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>21.00131</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>19.8664</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>20.15223</v>
       </c>
-      <c r="G98">
+      <c r="G98" t="n">
         <v>616257</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>41092.29166666666</v>
       </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
         <v>20.15223</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>21.23598</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>20.06598</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>20.58563</v>
       </c>
-      <c r="G99">
+      <c r="G99" t="n">
         <v>421173</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>41122.29166666666</v>
       </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>20.58563</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>20.87929</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>19.65216</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>19.76389</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="n">
         <v>376185</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>41155.29166666666</v>
       </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
         <v>19.76389</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>19.89827</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>18.51427</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>19.54351</v>
       </c>
-      <c r="G101">
+      <c r="G101" t="n">
         <v>339430</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>41183.29166666666</v>
       </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
         <v>19.54351</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>19.63464</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>18.82814</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>19.36177</v>
       </c>
-      <c r="G102">
+      <c r="G102" t="n">
         <v>318595</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>41214.33333333334</v>
       </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
         <v>19.36177</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>20.11932</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>19.31985</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>19.44122</v>
       </c>
-      <c r="G103">
+      <c r="G103" t="n">
         <v>298779</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>41246.375</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
         <v>19.44122</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>19.57079</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>18.88418</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>19.01018</v>
       </c>
-      <c r="G104">
+      <c r="G104" t="n">
         <v>175608</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>41275.375</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
         <v>19.01018</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>19.71081</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>18.85794</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="n">
         <v>18.90334</v>
       </c>
-      <c r="G105">
+      <c r="G105" t="n">
         <v>319555</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>41306.375</v>
       </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
         <v>18.90334</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>19.67827</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>18.55092</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>19.65598</v>
       </c>
-      <c r="G106">
+      <c r="G106" t="n">
         <v>345631</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>41334.375</v>
       </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
         <v>19.65598</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>20.23918</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>19.34424</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>20.07622</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>358220</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>41365.33333333334</v>
       </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
         <v>20.07622</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>20.25807</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>19.55247</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>19.59912</v>
       </c>
-      <c r="G108">
+      <c r="G108" t="n">
         <v>379378</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>41395.29166666666</v>
       </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
         <v>19.59912</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>20.39496</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>19.40989</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>19.79326</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="n">
         <v>399576</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>41428.29166666666</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>19.79326</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>20.09402</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>19.09254</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>19.98846</v>
       </c>
-      <c r="G110">
+      <c r="G110" t="n">
         <v>2376417</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>41456.29166666666</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
         <v>19.98846</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>20.326</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>19.3556</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
         <v>19.49993</v>
       </c>
-      <c r="G111">
+      <c r="G111" t="n">
         <v>1671786</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>41487.29166666666</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>19.49993</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>19.70666</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>19.13308</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>19.47552</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="n">
         <v>1309803</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>41519.29166666666</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
         <v>19.47552</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>19.67703</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>18.92589</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>18.99106</v>
       </c>
-      <c r="G113">
+      <c r="G113" t="n">
         <v>1207346</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>41548.29166666666</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
         <v>18.99106</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>19.07225</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>18.58727</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>18.9877</v>
       </c>
-      <c r="G114">
+      <c r="G114" t="n">
         <v>1296525</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>41579.33333333334</v>
       </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>18.9877</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>20.359</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>18.97735</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
         <v>20.1361</v>
       </c>
-      <c r="G115">
+      <c r="G115" t="n">
         <v>1189157</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>41610.375</v>
       </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
         <v>20.1361</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>20.30204</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>19.77576</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>19.82846</v>
       </c>
-      <c r="G116">
+      <c r="G116" t="n">
         <v>843576</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>41640.375</v>
       </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
         <v>19.82846</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>20.44606</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>19.82846</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>20.41012</v>
       </c>
-      <c r="G117">
+      <c r="G117" t="n">
         <v>1187409</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>41673.375</v>
       </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
         <v>20.41012</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>20.43806</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>19.76648</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>19.79504</v>
       </c>
-      <c r="G118">
+      <c r="G118" t="n">
         <v>905642</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>41701.375</v>
       </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
         <v>19.79504</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>19.99263</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>19.58918</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>19.93432</v>
       </c>
-      <c r="G119">
+      <c r="G119" t="n">
         <v>859505</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>41730.33333333334</v>
       </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
         <v>19.93432</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>20.07067</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>19.7299</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>19.79331</v>
       </c>
-      <c r="G120">
+      <c r="G120" t="n">
         <v>741267</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>41760.29166666666</v>
       </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
         <v>19.79331</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>20.23471</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>19.58264</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>20.16188</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>685472</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>41792.29166666666</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
         <v>20.16188</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>20.31994</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>20.03562</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>20.04612</v>
       </c>
-      <c r="G122">
+      <c r="G122" t="n">
         <v>817321</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>41821.29166666666</v>
       </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
         <v>20.04612</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>20.69126</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>20.03008</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>20.66894</v>
       </c>
-      <c r="G123">
+      <c r="G123" t="n">
         <v>647906</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>41852.29166666666</v>
       </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
         <v>20.66894</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>21.19362</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>20.57209</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>21.11509</v>
       </c>
-      <c r="G124">
+      <c r="G124" t="n">
         <v>831671</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>41883.29166666666</v>
       </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
         <v>21.11509</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>21.87428</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>21.01755</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>21.77024</v>
       </c>
-      <c r="G125">
+      <c r="G125" t="n">
         <v>1201116</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>41913.29166666666</v>
       </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
         <v>21.77024</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>22.2645</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>21.37382</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
         <v>22.19594</v>
       </c>
-      <c r="G126">
+      <c r="G126" t="n">
         <v>1804351</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>41946.375</v>
       </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
         <v>22.19594</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>22.45712</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>21.9859</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>22.18224</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>1618040</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>41974.375</v>
       </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
         <v>22.18224</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>22.93512</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>21.94084</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>22.89672</v>
       </c>
-      <c r="G128">
+      <c r="G128" t="n">
         <v>1496019</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>42005.375</v>
       </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
         <v>22.89672</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>25.01612</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>22.8816</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>24.58649</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>2179841</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>42037.375</v>
       </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
         <v>24.58649</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>24.62638</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>23.83372</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>24.56876</v>
       </c>
-      <c r="G130">
+      <c r="G130" t="n">
         <v>1789402</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>42065.375</v>
       </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
         <v>24.56876</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>26.09296</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>24.44848</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>25.6778</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>2732016</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>42095.33333333334</v>
       </c>
-      <c r="B132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
         <v>25.6778</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>26.03306</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>24.35974</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
         <v>24.46932</v>
       </c>
-      <c r="G132">
+      <c r="G132" t="n">
         <v>2905427</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>42125.29166666666</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
         <v>24.46932</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>25.32166</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>23.88042</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
         <v>24.9498</v>
       </c>
-      <c r="G133">
+      <c r="G133" t="n">
         <v>2760160</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>42156.29166666666</v>
       </c>
-      <c r="B134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
         <v>24.9498</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>25.2026</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>23.8088</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>24.4862</v>
       </c>
-      <c r="G134">
+      <c r="G134" t="n">
         <v>3063520</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>42186.29166666666</v>
       </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
         <v>24.4862</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>25.05762</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>24.17158</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>24.64846</v>
       </c>
-      <c r="G135">
+      <c r="G135" t="n">
         <v>2203561</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>42219.29166666666</v>
       </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
         <v>24.64846</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>24.92599</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>23.09487</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>24.11826</v>
       </c>
-      <c r="G136">
+      <c r="G136" t="n">
         <v>2114416</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>42248.29166666666</v>
       </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
         <v>24.11826</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>24.4492</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>23.6189</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>24.3274</v>
       </c>
-      <c r="G137">
+      <c r="G137" t="n">
         <v>1962221</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>42278.29166666666</v>
       </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
         <v>24.3274</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>24.87144</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>23.5747</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
         <v>24.61858</v>
       </c>
-      <c r="G138">
+      <c r="G138" t="n">
         <v>2868367</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>42310.375</v>
       </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
         <v>24.61858</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>25.61251</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>24.51269</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="n">
         <v>25.58871</v>
       </c>
-      <c r="G139">
+      <c r="G139" t="n">
         <v>3458412</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>42339.375</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
         <v>25.58871</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>25.69838</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>24.43626</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="n">
         <v>24.85862</v>
       </c>
-      <c r="G140">
+      <c r="G140" t="n">
         <v>3954014</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>42370.375</v>
       </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
         <v>24.85862</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>25.22912</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>24.59971</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
         <v>24.9449</v>
       </c>
-      <c r="G141">
+      <c r="G141" t="n">
         <v>2973193</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>42401.375</v>
       </c>
-      <c r="B142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>24.9449</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>24.98738</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>23.76126</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="n">
         <v>24.89616</v>
       </c>
-      <c r="G142">
+      <c r="G142" t="n">
         <v>3127750</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>42430.375</v>
       </c>
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
         <v>24.89616</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>24.98418</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>23.69504</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="n">
         <v>23.76138</v>
       </c>
-      <c r="G143">
+      <c r="G143" t="n">
         <v>2803068</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>42461.33333333334</v>
       </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
         <v>23.76138</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>24.10948</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>23.57176</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="n">
         <v>23.61844</v>
       </c>
-      <c r="G144">
+      <c r="G144" t="n">
         <v>2412309</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>42492.29166666666</v>
       </c>
-      <c r="B145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
         <v>23.61844</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>24.3504</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>23.27226</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="n">
         <v>24.27472</v>
       </c>
-      <c r="G145">
+      <c r="G145" t="n">
         <v>2158926</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>42522.29166666666</v>
       </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
         <v>24.27472</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>24.84909</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>23.6708</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="n">
         <v>24.38454</v>
       </c>
-      <c r="G146">
+      <c r="G146" t="n">
         <v>3629474</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>42552.29166666666</v>
       </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
         <v>24.38454</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>24.67114</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>24.15592</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="n">
         <v>24.19502</v>
       </c>
-      <c r="G147">
+      <c r="G147" t="n">
         <v>2678057</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>42583.29166666666</v>
       </c>
-      <c r="B148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
         <v>24.19502</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>24.46156</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>23.77318</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="n">
         <v>24.22092</v>
       </c>
-      <c r="G148">
+      <c r="G148" t="n">
         <v>2207179</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>42614.29166666666</v>
       </c>
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
         <v>24.22092</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>24.29138</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>23.85551</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="n">
         <v>24.03545</v>
       </c>
-      <c r="G149">
+      <c r="G149" t="n">
         <v>2279557</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>42646.33333333334</v>
       </c>
-      <c r="B150" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
         <v>24.03545</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>24.90199</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>24.03242</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="n">
         <v>24.608</v>
       </c>
-      <c r="G150">
+      <c r="G150" t="n">
         <v>2947256</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>42675.33333333334</v>
       </c>
-      <c r="B151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
         <v>24.608</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>25.6964</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>23.92097</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="n">
         <v>25.5439</v>
       </c>
-      <c r="G151">
+      <c r="G151" t="n">
         <v>5163803</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>42705.375</v>
       </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
         <v>25.5439</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>26.10102</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>24.86753</v>
       </c>
-      <c r="F152">
+      <c r="F152" t="n">
         <v>25.6873</v>
       </c>
-      <c r="G152">
+      <c r="G152" t="n">
         <v>4177137</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>42737.375</v>
       </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
         <v>25.6873</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>26.1295</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>24.9924</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="n">
         <v>25.02546</v>
       </c>
-      <c r="G153">
+      <c r="G153" t="n">
         <v>7732140</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>42767.375</v>
       </c>
-      <c r="B154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
         <v>25.02546</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>25.74949</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>24.95371</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="n">
         <v>25.54982</v>
       </c>
-      <c r="G154">
+      <c r="G154" t="n">
         <v>5619416</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>42795.375</v>
       </c>
-      <c r="B155" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
         <v>25.54982</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>25.74596</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>24.77535</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="n">
         <v>25.37076</v>
       </c>
-      <c r="G155">
+      <c r="G155" t="n">
         <v>5304237</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>42828.29166666666</v>
       </c>
-      <c r="B156" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
         <v>25.37076</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>25.47506</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>24.51487</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="n">
         <v>24.63117</v>
       </c>
-      <c r="G156">
+      <c r="G156" t="n">
         <v>3746163</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>42856.29166666666</v>
       </c>
-      <c r="B157" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
         <v>24.63117</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>24.71007</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>23.4176</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="n">
         <v>23.43864</v>
       </c>
-      <c r="G157">
+      <c r="G157" t="n">
         <v>5957686</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>42887.29166666666</v>
       </c>
-      <c r="B158" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
         <v>23.43864</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>23.6917</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>22.85486</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="n">
         <v>22.86467</v>
       </c>
-      <c r="G158">
+      <c r="G158" t="n">
         <v>5906277</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>42919.29166666666</v>
       </c>
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
         <v>22.86467</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>23.1003</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>22.01736</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="n">
         <v>22.02564</v>
       </c>
-      <c r="G159">
+      <c r="G159" t="n">
         <v>4704977</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>42948.29166666666</v>
       </c>
-      <c r="B160" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>22.02564</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>22.3894</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>21.63918</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="n">
         <v>21.92423</v>
       </c>
-      <c r="G160">
+      <c r="G160" t="n">
         <v>4970402</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>42979.29166666666</v>
       </c>
-      <c r="B161" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
         <v>21.92423</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>22.26214</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>21.6058</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="n">
         <v>21.98795</v>
       </c>
-      <c r="G161">
+      <c r="G161" t="n">
         <v>4963681</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>43010.33333333334</v>
       </c>
-      <c r="B162" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
         <v>21.98795</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>22.1943</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>21.61308</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="n">
         <v>22.03208</v>
       </c>
-      <c r="G162">
+      <c r="G162" t="n">
         <v>3724471</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>43040.33333333334</v>
       </c>
-      <c r="B163" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
         <v>22.03208</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>22.1523</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>21.25212</v>
       </c>
-      <c r="F163">
+      <c r="F163" t="n">
         <v>21.43578</v>
       </c>
-      <c r="G163">
+      <c r="G163" t="n">
         <v>3330194</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>43070.375</v>
       </c>
-      <c r="B164" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
         <v>21.43578</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>21.88697</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>21.22884</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="n">
         <v>21.28354</v>
       </c>
-      <c r="G164">
+      <c r="G164" t="n">
         <v>3281374</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>43101.375</v>
       </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
         <v>21.28354</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>21.44307</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>20.22672</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="n">
         <v>20.35826</v>
       </c>
-      <c r="G165">
+      <c r="G165" t="n">
         <v>4322481</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>43132.375</v>
       </c>
-      <c r="B166" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
         <v>20.35826</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>20.84958</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>20.10724</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="n">
         <v>20.83706</v>
       </c>
-      <c r="G166">
+      <c r="G166" t="n">
         <v>4449057</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>43160.375</v>
       </c>
-      <c r="B167" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
         <v>20.83706</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>20.90994</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>20.39418</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="n">
         <v>20.5599</v>
       </c>
-      <c r="G167">
+      <c r="G167" t="n">
         <v>3863919</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>43192.29166666666</v>
       </c>
-      <c r="B168" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
         <v>20.5599</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>21.203</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>20.34748</v>
       </c>
-      <c r="F168">
+      <c r="F168" t="n">
         <v>21.18878</v>
       </c>
-      <c r="G168">
+      <c r="G168" t="n">
         <v>3018575</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>43221.29166666666</v>
       </c>
-      <c r="B169" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
         <v>21.18878</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>22.51924</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="n">
         <v>21.17886</v>
       </c>
-      <c r="F169">
+      <c r="F169" t="n">
         <v>22.08551</v>
       </c>
-      <c r="G169">
+      <c r="G169" t="n">
         <v>6822099</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>43252.29166666666</v>
       </c>
-      <c r="B170" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
         <v>22.08551</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>22.57309</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>21.64675</v>
       </c>
-      <c r="F170">
+      <c r="F170" t="n">
         <v>22.22981</v>
       </c>
-      <c r="G170">
+      <c r="G170" t="n">
         <v>7120679</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>43283.29166666666</v>
       </c>
-      <c r="B171" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
         <v>22.22981</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>22.51756</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>21.78324</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="n">
         <v>21.87174</v>
       </c>
-      <c r="G171">
+      <c r="G171" t="n">
         <v>5249991</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>43313.29166666666</v>
       </c>
-      <c r="B172" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
         <v>21.87174</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>22.8421</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>21.85548</v>
       </c>
-      <c r="F172">
+      <c r="F172" t="n">
         <v>22.2081</v>
       </c>
-      <c r="G172">
+      <c r="G172" t="n">
         <v>5387728</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>43346.29166666666</v>
       </c>
-      <c r="B173" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
         <v>22.2081</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>22.32228</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>21.63185</v>
       </c>
-      <c r="F173">
+      <c r="F173" t="n">
         <v>22.20544</v>
       </c>
-      <c r="G173">
+      <c r="G173" t="n">
         <v>4433695</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>43374.29166666666</v>
       </c>
-      <c r="B174" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
         <v>22.20544</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>22.95009</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="n">
         <v>22.16168</v>
       </c>
-      <c r="F174">
+      <c r="F174" t="n">
         <v>22.92121</v>
       </c>
-      <c r="G174">
+      <c r="G174" t="n">
         <v>5977854</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>43405.33333333334</v>
       </c>
-      <c r="B175" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
         <v>22.92121</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>23.13358</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="n">
         <v>22.4806</v>
       </c>
-      <c r="F175">
+      <c r="F175" t="n">
         <v>22.95476</v>
       </c>
-      <c r="G175">
+      <c r="G175" t="n">
         <v>7856602</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>43437.375</v>
       </c>
-      <c r="B176" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
         <v>22.95476</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>22.95476</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="n">
         <v>22.42</v>
       </c>
-      <c r="F176">
+      <c r="F176" t="n">
         <v>22.42772</v>
       </c>
-      <c r="G176">
+      <c r="G176" t="n">
         <v>4713685</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>43466.375</v>
       </c>
-      <c r="B177" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
         <v>22.42772</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>22.79098</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="n">
         <v>22.15482</v>
       </c>
-      <c r="F177">
+      <c r="F177" t="n">
         <v>22.49852</v>
       </c>
-      <c r="G177">
+      <c r="G177" t="n">
         <v>5082164</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>43497.375</v>
       </c>
-      <c r="B178" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
         <v>22.49852</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>22.9643</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>22.34019</v>
       </c>
-      <c r="F178">
+      <c r="F178" t="n">
         <v>22.54009</v>
       </c>
-      <c r="G178">
+      <c r="G178" t="n">
         <v>3561834</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>43525.375</v>
       </c>
-      <c r="B179" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
         <v>22.54009</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>23.03204</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="n">
         <v>22.39774</v>
       </c>
-      <c r="F179">
+      <c r="F179" t="n">
         <v>23.01747</v>
       </c>
-      <c r="G179">
+      <c r="G179" t="n">
         <v>5101132</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>43556.33333333334</v>
       </c>
-      <c r="B180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
         <v>23.01747</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>23.1495</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="n">
         <v>22.62472</v>
       </c>
-      <c r="F180">
+      <c r="F180" t="n">
         <v>22.8563</v>
       </c>
-      <c r="G180">
+      <c r="G180" t="n">
         <v>5083103</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>43586.29166666666</v>
       </c>
-      <c r="B181" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
         <v>22.8563</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>23.24676</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>22.75414</v>
       </c>
-      <c r="F181">
+      <c r="F181" t="n">
         <v>23.1382</v>
       </c>
-      <c r="G181">
+      <c r="G181" t="n">
         <v>3390309</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>43619.29166666666</v>
       </c>
-      <c r="B182" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
         <v>23.1382</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>23.16178</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="n">
         <v>22.31382</v>
       </c>
-      <c r="F182">
+      <c r="F182" t="n">
         <v>22.36124</v>
       </c>
-      <c r="G182">
+      <c r="G182" t="n">
         <v>3864783</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>43647.29166666666</v>
       </c>
-      <c r="B183" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
         <v>22.36124</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>23.24266</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="n">
         <v>22.36124</v>
       </c>
-      <c r="F183">
+      <c r="F183" t="n">
         <v>23.18998</v>
       </c>
-      <c r="G183">
+      <c r="G183" t="n">
         <v>3505222</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>43678.29166666666</v>
       </c>
-      <c r="B184" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
         <v>23.18998</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>23.66996</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="n">
         <v>22.90826</v>
       </c>
-      <c r="F184">
+      <c r="F184" t="n">
         <v>23.62924</v>
       </c>
-      <c r="G184">
+      <c r="G184" t="n">
         <v>3880131</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>43710.29166666666</v>
       </c>
-      <c r="B185" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
         <v>23.61638</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>23.71688</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="n">
         <v>23.26636</v>
       </c>
-      <c r="F185">
+      <c r="F185" t="n">
         <v>23.66634</v>
       </c>
-      <c r="G185">
+      <c r="G185" t="n">
         <v>2574366</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>43739.29166666666</v>
       </c>
-      <c r="B186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
         <v>23.66634</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>23.72404</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="n">
         <v>22.81678</v>
       </c>
-      <c r="F186">
+      <c r="F186" t="n">
         <v>22.87934</v>
       </c>
-      <c r="G186">
+      <c r="G186" t="n">
         <v>2671778</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>43770.33333333334</v>
       </c>
-      <c r="B187" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
         <v>22.87934</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>23.27184</v>
       </c>
-      <c r="E187">
+      <c r="E187" t="n">
         <v>22.82895</v>
       </c>
-      <c r="F187">
+      <c r="F187" t="n">
         <v>23.18346</v>
       </c>
-      <c r="G187">
+      <c r="G187" t="n">
         <v>1760513</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>43801.375</v>
       </c>
-      <c r="B188" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
         <v>23.18346</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>23.21588</v>
       </c>
-      <c r="E188">
+      <c r="E188" t="n">
         <v>22.60478</v>
       </c>
-      <c r="F188">
+      <c r="F188" t="n">
         <v>22.67246</v>
       </c>
-      <c r="G188">
+      <c r="G188" t="n">
         <v>1859862</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>43831.375</v>
       </c>
-      <c r="B189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
         <v>22.67246</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>22.9662</v>
       </c>
-      <c r="E189">
+      <c r="E189" t="n">
         <v>22.45955</v>
       </c>
-      <c r="F189">
+      <c r="F189" t="n">
         <v>22.73242</v>
       </c>
-      <c r="G189">
+      <c r="G189" t="n">
         <v>1891257</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>43864.375</v>
       </c>
-      <c r="B190" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
         <v>22.73242</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>23.35662</v>
       </c>
-      <c r="E190">
+      <c r="E190" t="n">
         <v>22.61302</v>
       </c>
-      <c r="F190">
+      <c r="F190" t="n">
         <v>23.0865</v>
       </c>
-      <c r="G190">
+      <c r="G190" t="n">
         <v>2264040</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>43892.375</v>
       </c>
-      <c r="B191" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
         <v>23.0865</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>26.07699</v>
       </c>
-      <c r="E191">
+      <c r="E191" t="n">
         <v>22.16699</v>
       </c>
-      <c r="F191">
+      <c r="F191" t="n">
         <v>24.80501</v>
       </c>
-      <c r="G191">
+      <c r="G191" t="n">
         <v>7403432</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>43922.33333333334</v>
       </c>
-      <c r="B192" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
         <v>24.80501</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>25.79758</v>
       </c>
-      <c r="E192">
+      <c r="E192" t="n">
         <v>24.40487</v>
       </c>
-      <c r="F192">
+      <c r="F192" t="n">
         <v>24.77151</v>
       </c>
-      <c r="G192">
+      <c r="G192" t="n">
         <v>3269933</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>43952.29166666666</v>
       </c>
-      <c r="B193" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
         <v>24.77151</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>25.65224</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="n">
         <v>24.1499</v>
       </c>
-      <c r="F193">
+      <c r="F193" t="n">
         <v>24.26113</v>
       </c>
-      <c r="G193">
+      <c r="G193" t="n">
         <v>2897330</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>43983.29166666666</v>
       </c>
-      <c r="B194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
         <v>24.26113</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>24.26824</v>
       </c>
-      <c r="E194">
+      <c r="E194" t="n">
         <v>23.22868</v>
       </c>
-      <c r="F194">
+      <c r="F194" t="n">
         <v>23.7417</v>
       </c>
-      <c r="G194">
+      <c r="G194" t="n">
         <v>4310432</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>44013.29166666666</v>
       </c>
-      <c r="B195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
         <v>23.7417</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>23.84458</v>
       </c>
-      <c r="E195">
+      <c r="E195" t="n">
         <v>21.98924</v>
       </c>
-      <c r="F195">
+      <c r="F195" t="n">
         <v>22.27926</v>
       </c>
-      <c r="G195">
+      <c r="G195" t="n">
         <v>3248112</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>44046.29166666666</v>
       </c>
-      <c r="B196" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
         <v>22.27926</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>22.49486</v>
       </c>
-      <c r="E196">
+      <c r="E196" t="n">
         <v>21.81136</v>
       </c>
-      <c r="F196">
+      <c r="F196" t="n">
         <v>22.00242</v>
       </c>
-      <c r="G196">
+      <c r="G196" t="n">
         <v>3031708</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>44075.29166666666</v>
       </c>
-      <c r="B197" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
         <v>22.00242</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>23.39298</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="n">
         <v>21.80389</v>
       </c>
-      <c r="F197">
+      <c r="F197" t="n">
         <v>23.10129</v>
       </c>
-      <c r="G197">
+      <c r="G197" t="n">
         <v>5202584</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>44105.29166666666</v>
       </c>
-      <c r="B198" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
         <v>23.10129</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>23.49686</v>
       </c>
-      <c r="E198">
+      <c r="E198" t="n">
         <v>22.80794</v>
       </c>
-      <c r="F198">
+      <c r="F198" t="n">
         <v>23.4071</v>
       </c>
-      <c r="G198">
+      <c r="G198" t="n">
         <v>2263786</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>44137.375</v>
       </c>
-      <c r="B199" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
         <v>23.4071</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>23.4622</v>
       </c>
-      <c r="E199">
+      <c r="E199" t="n">
         <v>21.79935</v>
       </c>
-      <c r="F199">
+      <c r="F199" t="n">
         <v>21.99865</v>
       </c>
-      <c r="G199">
+      <c r="G199" t="n">
         <v>2629126</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>44166.375</v>
       </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
         <v>21.99865</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>22.02545</v>
       </c>
-      <c r="E200">
+      <c r="E200" t="n">
         <v>21.2929</v>
       </c>
-      <c r="F200">
+      <c r="F200" t="n">
         <v>21.48515</v>
       </c>
-      <c r="G200">
+      <c r="G200" t="n">
         <v>2298628</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>44197.375</v>
       </c>
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
         <v>21.48515</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>21.7321</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="n">
         <v>21.1368</v>
       </c>
-      <c r="F201">
+      <c r="F201" t="n">
         <v>21.4565</v>
       </c>
-      <c r="G201">
+      <c r="G201" t="n">
         <v>2141967</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>44228.375</v>
       </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
         <v>21.4565</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>21.7002</v>
       </c>
-      <c r="E202">
+      <c r="E202" t="n">
         <v>21.1135</v>
       </c>
-      <c r="F202">
+      <c r="F202" t="n">
         <v>21.66995</v>
       </c>
-      <c r="G202">
+      <c r="G202" t="n">
         <v>2302461</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>44256.375</v>
       </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
         <v>21.66995</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>22.34895</v>
       </c>
-      <c r="E203">
+      <c r="E203" t="n">
         <v>21.4293</v>
       </c>
-      <c r="F203">
+      <c r="F203" t="n">
         <v>22.2697</v>
       </c>
-      <c r="G203">
+      <c r="G203" t="n">
         <v>2929131</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>44287.33333333334</v>
       </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
         <v>22.2697</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>22.29776</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="n">
         <v>21.27525</v>
       </c>
-      <c r="F204">
+      <c r="F204" t="n">
         <v>21.5235</v>
       </c>
-      <c r="G204">
+      <c r="G204" t="n">
         <v>2492230</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>44319.29166666666</v>
       </c>
-      <c r="B205" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
         <v>21.5235</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>21.58115</v>
       </c>
-      <c r="E205">
+      <c r="E205" t="n">
         <v>20.7176</v>
       </c>
-      <c r="F205">
+      <c r="F205" t="n">
         <v>20.80115</v>
       </c>
-      <c r="G205">
+      <c r="G205" t="n">
         <v>1993401</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>44348.29166666666</v>
       </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
         <v>20.80115</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>21.59905</v>
       </c>
-      <c r="E206">
+      <c r="E206" t="n">
         <v>20.7424</v>
       </c>
-      <c r="F206">
+      <c r="F206" t="n">
         <v>21.5148</v>
       </c>
-      <c r="G206">
+      <c r="G206" t="n">
         <v>1632426</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>44378.29166666666</v>
       </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
         <v>21.5148</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>21.9219</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="n">
         <v>21.3863</v>
       </c>
-      <c r="F207">
+      <c r="F207" t="n">
         <v>21.4791</v>
       </c>
-      <c r="G207">
+      <c r="G207" t="n">
         <v>2915514</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>44410.29166666666</v>
       </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
         <v>21.4791</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>21.9785</v>
       </c>
-      <c r="E208">
+      <c r="E208" t="n">
         <v>21.2986</v>
       </c>
-      <c r="F208">
+      <c r="F208" t="n">
         <v>21.5172</v>
       </c>
-      <c r="G208">
+      <c r="G208" t="n">
         <v>3697515</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>44440.29166666666</v>
       </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
         <v>21.5172</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>22.06975</v>
       </c>
-      <c r="E209">
+      <c r="E209" t="n">
         <v>21.3127</v>
       </c>
-      <c r="F209">
+      <c r="F209" t="n">
         <v>21.8898</v>
       </c>
-      <c r="G209">
+      <c r="G209" t="n">
         <v>3778270</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>44470.29166666666</v>
       </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
         <v>21.8898</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>22.24465</v>
       </c>
-      <c r="E210">
+      <c r="E210" t="n">
         <v>21.74005</v>
       </c>
-      <c r="F210">
+      <c r="F210" t="n">
         <v>22.18955</v>
       </c>
-      <c r="G210">
+      <c r="G210" t="n">
         <v>3021802</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>44501.33333333334</v>
       </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
         <v>22.18955</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>22.93245</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="n">
         <v>21.7115</v>
       </c>
-      <c r="F211">
+      <c r="F211" t="n">
         <v>22.50425</v>
       </c>
-      <c r="G211">
+      <c r="G211" t="n">
         <v>4173373</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>44531.375</v>
       </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
         <v>22.50425</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>22.68565</v>
       </c>
-      <c r="E212">
+      <c r="E212" t="n">
         <v>21.8347</v>
       </c>
-      <c r="F212">
+      <c r="F212" t="n">
         <v>21.88305</v>
       </c>
-      <c r="G212">
+      <c r="G212" t="n">
         <v>4411900</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>44564.375</v>
       </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
         <v>21.88305</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>22.01045</v>
       </c>
-      <c r="E213">
+      <c r="E213" t="n">
         <v>21.1215</v>
       </c>
-      <c r="F213">
+      <c r="F213" t="n">
         <v>21.66495</v>
       </c>
-      <c r="G213">
+      <c r="G213" t="n">
         <v>5191131</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>44593.375</v>
       </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
         <v>21.66495</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>22.52075</v>
       </c>
-      <c r="E214">
+      <c r="E214" t="n">
         <v>21.1267</v>
       </c>
-      <c r="F214">
+      <c r="F214" t="n">
         <v>22.43155</v>
       </c>
-      <c r="G214">
+      <c r="G214" t="n">
         <v>5720803</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>44621.375</v>
       </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
         <v>22.43155</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>23.9246</v>
       </c>
-      <c r="E215">
+      <c r="E215" t="n">
         <v>21.8394</v>
       </c>
-      <c r="F215">
+      <c r="F215" t="n">
         <v>22.0627</v>
       </c>
-      <c r="G215">
+      <c r="G215" t="n">
         <v>4148556</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>44652.33333333334</v>
       </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
         <v>22.0627</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>23.456</v>
       </c>
-      <c r="E216">
+      <c r="E216" t="n">
         <v>21.96374</v>
       </c>
-      <c r="F216">
+      <c r="F216" t="n">
         <v>23.3422</v>
       </c>
-      <c r="G216">
+      <c r="G216" t="n">
         <v>4472070</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>44683.29166666666</v>
       </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
         <v>23.3422</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>24.37176</v>
       </c>
-      <c r="E217">
+      <c r="E217" t="n">
         <v>22.8816</v>
       </c>
-      <c r="F217">
+      <c r="F217" t="n">
         <v>23.02835</v>
       </c>
-      <c r="G217">
+      <c r="G217" t="n">
         <v>6980946</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>44713.29166666666</v>
       </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
         <v>23.02835</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>23.88035</v>
       </c>
-      <c r="E218">
+      <c r="E218" t="n">
         <v>22.89305</v>
       </c>
-      <c r="F218">
+      <c r="F218" t="n">
         <v>23.59865</v>
       </c>
-      <c r="G218">
+      <c r="G218" t="n">
         <v>4505543</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>44743.29166666666</v>
       </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
         <v>23.59865</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>24.60775</v>
       </c>
-      <c r="E219">
+      <c r="E219" t="n">
         <v>23.5966</v>
       </c>
-      <c r="F219">
+      <c r="F219" t="n">
         <v>24.06915</v>
       </c>
-      <c r="G219">
+      <c r="G219" t="n">
         <v>3382574</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>44774.29166666666</v>
       </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
         <v>24.06915</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>24.9121</v>
       </c>
-      <c r="E220">
+      <c r="E220" t="n">
         <v>23.4553</v>
       </c>
-      <c r="F220">
+      <c r="F220" t="n">
         <v>24.37885</v>
       </c>
-      <c r="G220">
+      <c r="G220" t="n">
         <v>3390318</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>44805.29166666666</v>
       </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
         <v>24.37885</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>25.8833</v>
       </c>
-      <c r="E221">
+      <c r="E221" t="n">
         <v>24.08395</v>
       </c>
-      <c r="F221">
+      <c r="F221" t="n">
         <v>25.0882</v>
       </c>
-      <c r="G221">
+      <c r="G221" t="n">
         <v>4077743</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>44837.33333333334</v>
       </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
         <v>25.0882</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>25.5129</v>
       </c>
-      <c r="E222">
+      <c r="E222" t="n">
         <v>24.29056</v>
       </c>
-      <c r="F222">
+      <c r="F222" t="n">
         <v>24.7693</v>
       </c>
-      <c r="G222">
+      <c r="G222" t="n">
         <v>4251158</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>44866.33333333334</v>
       </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
         <v>24.7693</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>25.21425</v>
       </c>
-      <c r="E223">
+      <c r="E223" t="n">
         <v>23.1991</v>
       </c>
-      <c r="F223">
+      <c r="F223" t="n">
         <v>23.3908</v>
       </c>
-      <c r="G223">
+      <c r="G223" t="n">
         <v>3666525</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>44896.375</v>
       </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
         <v>23.3908</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>23.42895</v>
       </c>
-      <c r="E224">
+      <c r="E224" t="n">
         <v>22.5192</v>
       </c>
-      <c r="F224">
+      <c r="F224" t="n">
         <v>22.55205</v>
       </c>
-      <c r="G224">
+      <c r="G224" t="n">
         <v>3041258</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>44928.375</v>
       </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
         <v>22.55205</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>22.9552</v>
       </c>
-      <c r="E225">
+      <c r="E225" t="n">
         <v>21.753</v>
       </c>
-      <c r="F225">
+      <c r="F225" t="n">
         <v>21.8851</v>
       </c>
-      <c r="G225">
+      <c r="G225" t="n">
         <v>3324912</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>44958.375</v>
       </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
         <v>21.8851</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>22.4581</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="n">
         <v>21.55905</v>
       </c>
-      <c r="F226">
+      <c r="F226" t="n">
         <v>22.21615</v>
       </c>
-      <c r="G226">
+      <c r="G226" t="n">
         <v>2424237</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>44986.375</v>
       </c>
-      <c r="B227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
         <v>22.21615</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>22.85205</v>
       </c>
-      <c r="E227">
+      <c r="E227" t="n">
         <v>21.5299</v>
       </c>
-      <c r="F227">
+      <c r="F227" t="n">
         <v>21.64365</v>
       </c>
-      <c r="G227">
+      <c r="G227" t="n">
         <v>2542631</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>45019.29166666666</v>
       </c>
-      <c r="B228" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
         <v>21.64365</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>21.77725</v>
       </c>
-      <c r="E228">
+      <c r="E228" t="n">
         <v>21.0002</v>
       </c>
-      <c r="F228">
+      <c r="F228" t="n">
         <v>21.35805</v>
       </c>
-      <c r="G228">
+      <c r="G228" t="n">
         <v>1474987</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45047.29166666666</v>
       </c>
-      <c r="B229" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
         <v>21.35805</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>22.32265</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="n">
         <v>21.1644</v>
       </c>
-      <c r="F229">
+      <c r="F229" t="n">
         <v>22.1908</v>
       </c>
-      <c r="G229">
+      <c r="G229" t="n">
         <v>1568853</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>45078.29166666666</v>
       </c>
-      <c r="B230" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
         <v>22.1908</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>22.24515</v>
       </c>
-      <c r="E230">
+      <c r="E230" t="n">
         <v>21.4818</v>
       </c>
-      <c r="F230">
+      <c r="F230" t="n">
         <v>21.7749</v>
       </c>
-      <c r="G230">
+      <c r="G230" t="n">
         <v>1549990</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>45110.29166666666</v>
       </c>
-      <c r="B231" t="s">
-        <v>7</v>
-      </c>
-      <c r="C231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
         <v>21.7749</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>22.0456</v>
       </c>
-      <c r="E231">
+      <c r="E231" t="n">
         <v>21.06865</v>
       </c>
-      <c r="F231">
+      <c r="F231" t="n">
         <v>21.72035</v>
       </c>
-      <c r="G231">
+      <c r="G231" t="n">
         <v>1803036</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>45139.29166666666</v>
       </c>
-      <c r="B232" t="s">
-        <v>7</v>
-      </c>
-      <c r="C232">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
         <v>21.72035</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>22.427</v>
       </c>
-      <c r="E232">
+      <c r="E232" t="n">
         <v>21.703</v>
       </c>
-      <c r="F232">
+      <c r="F232" t="n">
         <v>22.1976</v>
       </c>
-      <c r="G232">
+      <c r="G232" t="n">
         <v>1905910</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>45170.29166666666</v>
       </c>
-      <c r="B233" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
         <v>22.1976</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>23.23755</v>
       </c>
-      <c r="E233">
+      <c r="E233" t="n">
         <v>22.15895</v>
       </c>
-      <c r="F233">
+      <c r="F233" t="n">
         <v>23.09665</v>
       </c>
-      <c r="G233">
+      <c r="G233" t="n">
         <v>1446802</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>45201.33333333334</v>
       </c>
-      <c r="B234" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
         <v>23.09665</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>23.54365</v>
       </c>
-      <c r="E234">
+      <c r="E234" t="n">
         <v>22.9725</v>
       </c>
-      <c r="F234">
+      <c r="F234" t="n">
         <v>23.2365</v>
       </c>
-      <c r="G234">
+      <c r="G234" t="n">
         <v>2037564</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>45231.33333333334</v>
       </c>
-      <c r="B235" t="s">
-        <v>7</v>
-      </c>
-      <c r="C235">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
         <v>23.2365</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>23.45305</v>
       </c>
-      <c r="E235">
+      <c r="E235" t="n">
         <v>21.99615</v>
       </c>
-      <c r="F235">
+      <c r="F235" t="n">
         <v>22.33085</v>
       </c>
-      <c r="G235">
+      <c r="G235" t="n">
         <v>1787889</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>45261.375</v>
       </c>
-      <c r="B236" t="s">
-        <v>7</v>
-      </c>
-      <c r="C236">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
         <v>22.33085</v>
       </c>
-      <c r="D236">
-        <v>22.61835</v>
-      </c>
-      <c r="E236">
-        <v>22.2777</v>
-      </c>
-      <c r="F236">
-        <v>22.55955</v>
-      </c>
-      <c r="G236">
-        <v>245944</v>
+      <c r="D236" t="n">
+        <v>22.7641</v>
+      </c>
+      <c r="E236" t="n">
+        <v>22.13345</v>
+      </c>
+      <c r="F236" t="n">
+        <v>22.3795</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1838695</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45292.375</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>OANDA:USDCZK</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>22.3795</v>
+      </c>
+      <c r="D237" t="n">
+        <v>22.77605</v>
+      </c>
+      <c r="E237" t="n">
+        <v>22.3027</v>
+      </c>
+      <c r="F237" t="n">
+        <v>22.76415</v>
+      </c>
+      <c r="G237" t="n">
+        <v>935109</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Czech Republic_FX.xlsx
@@ -1,40 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="8">
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>OANDA:USDCZK</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +81,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,5957 +400,5488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
         <v>38139.29166666666</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>25.6855</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>26.4477</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>25.338</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>26.166</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>44</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>38169.29166666666</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>26.166</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>26.388</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>25.051</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>26.353</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
         <v>38201.29166666666</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>26.353</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>26.5005</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>25.3952</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>26.1364</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>44</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
         <v>38231.29166666666</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>26.1364</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>26.343</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>25.374</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>25.374</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>44</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
         <v>38261.29166666666</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>25.374</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>25.6516</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>24.684</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>24.7819</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>40</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
         <v>38292.375</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>24.7819</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>24.7819</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>23.3073</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>23.3204</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>44</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
         <v>38322.375</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>23.3204</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>23.3204</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>22.3149</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>22.4167</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>46</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
         <v>38355.375</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>22.4167</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>23.4989</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>22.4035</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>23.0823</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1131437</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
         <v>38384.375</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>23.0823</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>23.5619</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>22.3564</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>22.4439</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>903718</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
         <v>38412.375</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
         <v>22.4439</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>23.4387</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>21.8112</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>23.1797</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>995834</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
         <v>38443.33333333334</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
         <v>23.1797</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>23.7734</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>22.9323</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>23.7337</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>972917</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
         <v>38474.29166666666</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>23.7337</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>24.7143</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>23.068</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>24.6721</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>897162</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
         <v>38504.29166666666</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
         <v>24.6721</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>25.0459</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>24.3472</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>24.8512</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1123744</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
         <v>38534.29166666666</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
         <v>24.8512</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>25.4699</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>24.6112</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>24.8911</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1075183</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
         <v>38565.29166666666</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
         <v>24.8911</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>24.9154</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>23.5548</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>23.8127</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1125029</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
         <v>38596.29166666666</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
         <v>23.8127</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>24.6882</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>23.0958</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>24.6279</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1114825</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
         <v>38628.29166666666</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>24.6279</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>25.0496</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>24.3515</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>24.7203</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1046370</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
         <v>38657.375</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>24.7203</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>25.1949</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>24.3866</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>24.5509</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>1064333</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
         <v>38687.375</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
         <v>24.5509</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>24.8055</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>24.0298</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>24.5527</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>972061</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
         <v>38719.375</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
         <v>24.5527</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>24.6096</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>23.047</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>23.332</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>642844</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
         <v>38749.375</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
         <v>23.332</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>24.1242</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>23.3094</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>23.7477</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>236745</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
         <v>38777.375</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
         <v>23.7477</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>24.2981</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>23.3622</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>23.4923</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>293093</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
         <v>38810.29166666666</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
         <v>23.4923</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>23.7532</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>22.539</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>22.5582</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>261183</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
         <v>38838.29166666666</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
         <v>22.5582</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>22.6779</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>21.7911</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>22.0708</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>449661</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
         <v>38869.29166666666</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
         <v>22.0708</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>22.8333</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>21.7742</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>22.2852</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>399657</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
         <v>38901.29166666666</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
         <v>22.2852</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>22.8422</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>22.1162</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>22.3176</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>342372</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
         <v>38930.29166666666</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
         <v>22.3176</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>22.4081</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>21.7117</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>22.0525</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>356143</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
         <v>38961.29166666666</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
         <v>22.0525</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>22.5513</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>21.90305</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>22.334</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>334542</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
         <v>38992.29166666666</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
         <v>22.334</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>22.6581</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>22.013</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>22.0501</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>362135</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
         <v>39022.375</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
         <v>22.0501</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>22.1287</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>21.0006</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>21.0553</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>396874</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
         <v>39052.375</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
         <v>21.0553</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>21.2956</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>20.7402</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>20.8256</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>525000</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
         <v>39083.375</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
         <v>20.8256</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>21.8963</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>20.6444</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>21.5672</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>713095</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
         <v>39114.375</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
         <v>21.5672</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>21.8827</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>21.2982</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>21.3425</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>507123</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
         <v>39142.375</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
         <v>21.3425</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>21.5567</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>20.7492</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>20.9716</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>479550</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
         <v>39174.29166666666</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
         <v>20.9716</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>21.00917</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>20.51134</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>20.65871</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>460672</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
         <v>39203.29166666666</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
         <v>20.65871</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>21.14845</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>20.61389</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>21.02548</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>594795</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
         <v>39234.29166666666</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
         <v>21.02548</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>21.54184</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>20.93886</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>21.22814</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>421288</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
         <v>39265.29166666666</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
         <v>21.22814</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>21.25281</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>20.33524</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>20.51484</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>421492</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
         <v>39295.29166666666</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
         <v>20.51484</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>20.81445</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>20.20103</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>20.31698</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>598523</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
         <v>39328.29166666666</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
         <v>20.31698</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>20.40515</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>19.27566</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>19.31031</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>420332</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
         <v>39356.29166666666</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
         <v>19.31031</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>19.62023</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>18.56236</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>18.6102</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>537302</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
         <v>39387.33333333334</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
         <v>18.6102</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>18.77944</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>17.72321</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>17.93024</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>709512</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
         <v>39419.375</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
         <v>17.93024</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>18.50239</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>17.63514</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>18.17449</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>568089</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
         <v>39448.375</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
         <v>18.17449</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>18.3303</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>17.33708</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>17.505</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>829672</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
         <v>39479.375</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
         <v>17.505</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>17.8436</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>16.4925</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>16.5405</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>583697</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="2">
         <v>39510.375</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
         <v>16.5405</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>16.5675</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>15.745</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>15.981</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>511782</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
         <v>39539.33333333334</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
         <v>15.981</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>16.25365</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>15.55225</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>16.159</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>588629</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="2">
         <v>39569.29166666666</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
         <v>16.159</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>16.474</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>15.8565</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>16.096</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>543526</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="2">
         <v>39601.29166666666</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
         <v>16.096</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>16.1485</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>15.0875</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>15.162</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>573597</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="2">
         <v>39630.29166666666</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
         <v>15.162</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>15.4515</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>14.3835</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>15.3525</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>890176</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="2">
         <v>39661.29166666666</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
         <v>15.3525</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>16.933</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>15.30825</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>16.9015</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>1272633</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="2">
         <v>39692.29166666666</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
         <v>16.9015</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>17.7655</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>16.086</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>17.3815</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>1634377</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
         <v>39722.29166666666</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
         <v>17.3815</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>20.6095</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>17.3189</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>18.8984</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>2107814</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="2">
         <v>39755.375</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
         <v>18.8984</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>20.7475</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>18.4434</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>19.9904</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>1912930</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="2">
         <v>39783.375</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
         <v>19.9904</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>20.5645</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>18.0023</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>19.2195</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>1826077</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="2">
         <v>39814.375</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
         <v>19.2195</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>22.0971</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>18.916</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>21.8177</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>1966863</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="2">
         <v>39846.375</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
         <v>21.8177</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>23.5778</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>21.0372</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>22.1909</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>2038826</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="2">
         <v>39874.375</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
         <v>22.1909</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>22.7016</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>19.3563</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>20.6525</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>2202673</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="2">
         <v>39904.33333333334</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
         <v>20.6525</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>21.1159</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>19.5013</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>20.2179</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>1911079</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="2">
         <v>39934.29166666666</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
         <v>20.2179</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>20.2522</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>18.971</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>19.0394</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>1742497</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="2">
         <v>39965.29166666666</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
         <v>19.0394</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>19.5676</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>18.29812</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>18.48466</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>1838392</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="2">
         <v>39995.29166666666</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
         <v>18.48466</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>18.88927</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>17.79467</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>17.924</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>789498</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="2">
         <v>40028.29166666666</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
         <v>17.924</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>18.35273</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>17.62476</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>17.76671</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>657808</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="2">
         <v>40057.29166666666</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
         <v>17.76671</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>18.15505</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>16.91478</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>17.2466</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>619292</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="2">
         <v>40087.29166666666</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
         <v>17.2466</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>18.11518</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>17.14317</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>18.02196</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>574948</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="2">
         <v>40119.375</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
         <v>18.02196</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>18.06498</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>16.86946</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>17.42979</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>510274</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="2">
         <v>40148.375</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
         <v>17.42979</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>18.5224</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>17.02443</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>18.4621</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>465661</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="2">
         <v>40179.375</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
         <v>18.4621</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>18.91863</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>17.87089</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>18.91084</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>542149</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="2">
         <v>40210.375</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
         <v>18.91084</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>19.3445</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>18.47</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>19.0246</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>549792</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="2">
         <v>40238.375</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
         <v>19.0246</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>19.24405</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>18.40861</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>18.7975</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>498982</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="2">
         <v>40269.33333333334</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
         <v>18.7975</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>19.5302</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>18.31661</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>19.27389</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>497835</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="2">
         <v>40301.29166666666</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
         <v>19.27389</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>21.26325</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>19.163</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>20.73176</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>1018023</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="2">
         <v>40330.29166666666</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
         <v>20.73176</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>21.87318</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>20.59045</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>21.00381</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>788836</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="2">
         <v>40360.29166666666</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
         <v>21.00381</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>21.13452</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>18.85902</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>18.99796</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>588009</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="2">
         <v>40392.29166666666</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
         <v>18.99796</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>19.7839</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>18.58015</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>19.53091</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>528274</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="2">
         <v>40422.29166666666</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
         <v>19.53091</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>19.55485</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>17.9742</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>18.04211</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>518415</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="2">
         <v>40452.29166666666</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
         <v>18.04211</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>18.05386</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>17.27321</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>17.6601</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>564932</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="2">
         <v>40483.33333333334</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
         <v>17.6601</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>19.2288</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>17.06303</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>19.21547</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>741628</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="2">
         <v>40513.375</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
         <v>19.21547</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>19.3969</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>18.60725</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>18.715</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>670604</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="2">
         <v>40546.375</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
         <v>18.715</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>19.13646</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>17.58885</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>17.6641</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>686287</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="2">
         <v>40575.375</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
         <v>17.6641</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>18.13396</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>17.33764</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>17.64255</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>460632</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="2">
         <v>40603.375</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
         <v>17.64255</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>17.78276</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>17.13401</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>17.33108</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>447529</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="2">
         <v>40634.33333333334</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
         <v>17.33108</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>17.39746</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>16.19809</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>16.3298</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>376649</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="2">
         <v>40665.29166666666</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
         <v>16.3298</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>17.58556</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>16.17952</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>17.06004</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>649208</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="2">
         <v>40695.29166666666</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
         <v>17.06004</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>17.34342</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>16.45538</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>16.78858</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>618081</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="2">
         <v>40725.29166666666</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
         <v>16.78858</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>17.57422</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>16.62044</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>16.7956</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>630952</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="2">
         <v>40756.29166666666</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
         <v>16.7956</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>17.27674</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>16.53459</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>16.78783</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>850345</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="2">
         <v>40787.29166666666</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
         <v>16.78783</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>18.60747</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>16.76099</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>18.43749</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>881884</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="2">
         <v>40819.33333333334</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
         <v>18.43749</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>18.9417</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>17.30319</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>17.95349</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>757696</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="2">
         <v>40848.33333333334</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
         <v>17.95349</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>19.73811</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>17.91993</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>18.8077</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>801736</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="2">
         <v>40878.375</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
         <v>18.8077</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>20.17681</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>18.58984</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>19.73754</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>494970</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="2">
         <v>40910.375</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
         <v>19.73754</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>20.43865</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>18.98271</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>19.35309</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>612114</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="2">
         <v>40940.375</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
         <v>19.35309</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>19.51231</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>18.42332</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>18.68537</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>571164</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="2">
         <v>40969.375</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
         <v>18.68537</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>19.00847</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>18.3647</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>18.5916</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>413730</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="2">
         <v>41001.29166666666</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
         <v>18.5916</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>19.1293</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>18.41145</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>18.84038</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>367877</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="2">
         <v>41030.29166666666</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
         <v>18.84038</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>20.91518</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>18.74199</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>20.79841</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>581856</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="2">
         <v>41061.29166666666</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
         <v>20.79841</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>21.00131</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>19.8664</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>20.15223</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>616257</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="2">
         <v>41092.29166666666</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
         <v>20.15223</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>21.23598</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>20.06598</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>20.58563</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>421173</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="2">
         <v>41122.29166666666</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
         <v>20.58563</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>20.87929</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>19.65216</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>19.76389</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>376185</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="2">
         <v>41155.29166666666</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
         <v>19.76389</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>19.89827</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>18.51427</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>19.54351</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>339430</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="2">
         <v>41183.29166666666</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
         <v>19.54351</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>19.63464</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>18.82814</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>19.36177</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>318595</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="2">
         <v>41214.33333333334</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
         <v>19.36177</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>20.11932</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>19.31985</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>19.44122</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>298779</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:7">
+      <c r="A104" s="2">
         <v>41246.375</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
         <v>19.44122</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>19.57079</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>18.88418</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>19.01018</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>175608</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:7">
+      <c r="A105" s="2">
         <v>41275.375</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
         <v>19.01018</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>19.71081</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>18.85794</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>18.90334</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>319555</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:7">
+      <c r="A106" s="2">
         <v>41306.375</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
         <v>18.90334</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>19.67827</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>18.55092</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>19.65598</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>345631</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:7">
+      <c r="A107" s="2">
         <v>41334.375</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
         <v>19.65598</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>20.23918</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>19.34424</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>20.07622</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>358220</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:7">
+      <c r="A108" s="2">
         <v>41365.33333333334</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
         <v>20.07622</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>20.25807</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>19.55247</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>19.59912</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>379378</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:7">
+      <c r="A109" s="2">
         <v>41395.29166666666</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
         <v>19.59912</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>20.39496</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>19.40989</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>19.79326</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>399576</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:7">
+      <c r="A110" s="2">
         <v>41428.29166666666</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
         <v>19.79326</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>20.09402</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>19.09254</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>19.98846</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>2376417</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:7">
+      <c r="A111" s="2">
         <v>41456.29166666666</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
         <v>19.98846</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>20.326</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>19.3556</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>19.49993</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>1671786</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:7">
+      <c r="A112" s="2">
         <v>41487.29166666666</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
         <v>19.49993</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>19.70666</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>19.13308</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>19.47552</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>1309803</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:7">
+      <c r="A113" s="2">
         <v>41519.29166666666</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
         <v>19.47552</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>19.67703</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>18.92589</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>18.99106</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>1207346</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:7">
+      <c r="A114" s="2">
         <v>41548.29166666666</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
         <v>18.99106</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>19.07225</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>18.58727</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>18.9877</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>1296525</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:7">
+      <c r="A115" s="2">
         <v>41579.33333333334</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
         <v>18.9877</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>20.359</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>18.97735</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>20.1361</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>1189157</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:7">
+      <c r="A116" s="2">
         <v>41610.375</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
         <v>20.1361</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>20.30204</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>19.77576</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>19.82846</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>843576</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:7">
+      <c r="A117" s="2">
         <v>41640.375</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
         <v>19.82846</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>20.44606</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>19.82846</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>20.41012</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>1187409</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:7">
+      <c r="A118" s="2">
         <v>41673.375</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
         <v>20.41012</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>20.43806</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>19.76648</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>19.79504</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>905642</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
         <v>41701.375</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
         <v>19.79504</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>19.99263</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>19.58918</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>19.93432</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>859505</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
         <v>41730.33333333334</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
         <v>19.93432</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>20.07067</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>19.7299</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>19.79331</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>741267</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
         <v>41760.29166666666</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
         <v>19.79331</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>20.23471</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>19.58264</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>20.16188</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>685472</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
         <v>41792.29166666666</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
         <v>20.16188</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>20.31994</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>20.03562</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>20.04612</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>817321</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
         <v>41821.29166666666</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
         <v>20.04612</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>20.69126</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>20.03008</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>20.66894</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>647906</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
         <v>41852.29166666666</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
         <v>20.66894</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>21.19362</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>20.57209</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>21.11509</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>831671</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
         <v>41883.29166666666</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
         <v>21.11509</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>21.87428</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>21.01755</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>21.77024</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>1201116</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
         <v>41913.29166666666</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
         <v>21.77024</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>22.2645</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>21.37382</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>22.19594</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>1804351</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
         <v>41946.375</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
         <v>22.19594</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>22.45712</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>21.9859</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>22.18224</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>1618040</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:7">
+      <c r="A128" s="2">
         <v>41974.375</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
         <v>22.18224</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>22.93512</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>21.94084</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>22.89672</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>1496019</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:7">
+      <c r="A129" s="2">
         <v>42005.375</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
         <v>22.89672</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>25.01612</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>22.8816</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>24.58649</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>2179841</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:7">
+      <c r="A130" s="2">
         <v>42037.375</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
         <v>24.58649</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>24.62638</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>23.83372</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>24.56876</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>1789402</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
         <v>42065.375</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
         <v>24.56876</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>26.09296</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>24.44848</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>25.6778</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>2732016</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
         <v>42095.33333333334</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
         <v>25.6778</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>26.03306</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>24.35974</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>24.46932</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>2905427</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
         <v>42125.29166666666</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
         <v>24.46932</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>25.32166</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>23.88042</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>24.9498</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>2760160</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
         <v>42156.29166666666</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
         <v>24.9498</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>25.2026</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>23.8088</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>24.4862</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>3063520</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
         <v>42186.29166666666</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
         <v>24.4862</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>25.05762</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>24.17158</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>24.64846</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>2203561</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
         <v>42219.29166666666</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
         <v>24.64846</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>24.92599</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>23.09487</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>24.11826</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>2114416</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
         <v>42248.29166666666</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
         <v>24.11826</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>24.4492</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>23.6189</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>24.3274</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>1962221</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
         <v>42278.29166666666</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
         <v>24.3274</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>24.87144</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>23.5747</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>24.61858</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>2868367</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
         <v>42310.375</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
         <v>24.61858</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>25.61251</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>24.51269</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>25.58871</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>3458412</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
         <v>42339.375</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
         <v>25.58871</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>25.69838</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>24.43626</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>24.85862</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>3954014</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
         <v>42370.375</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
         <v>24.85862</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>25.22912</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>24.59971</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>24.9449</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>2973193</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
         <v>42401.375</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
         <v>24.9449</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>24.98738</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>23.76126</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>24.89616</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>3127750</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
         <v>42430.375</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
         <v>24.89616</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>24.98418</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>23.69504</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>23.76138</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>2803068</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
         <v>42461.33333333334</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
         <v>23.76138</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>24.10948</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>23.57176</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>23.61844</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>2412309</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
         <v>42492.29166666666</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
         <v>23.61844</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>24.3504</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>23.27226</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>24.27472</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>2158926</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
         <v>42522.29166666666</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
         <v>24.27472</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>24.84909</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>23.6708</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>24.38454</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>3629474</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
         <v>42552.29166666666</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
         <v>24.38454</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>24.67114</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>24.15592</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>24.19502</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>2678057</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
         <v>42583.29166666666</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
         <v>24.19502</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>24.46156</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>23.77318</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>24.22092</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>2207179</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
         <v>42614.29166666666</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
         <v>24.22092</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>24.29138</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>23.85551</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>24.03545</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>2279557</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
         <v>42646.33333333334</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
         <v>24.03545</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>24.90199</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>24.03242</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>24.608</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>2947256</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
         <v>42675.33333333334</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
         <v>24.608</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>25.6964</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>23.92097</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>25.5439</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>5163803</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
         <v>42705.375</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
         <v>25.5439</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>26.10102</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>24.86753</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>25.6873</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>4177137</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
         <v>42737.375</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
         <v>25.6873</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>26.1295</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>24.9924</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>25.02546</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>7732140</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
         <v>42767.375</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
         <v>25.02546</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>25.74949</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>24.95371</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>25.54982</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>5619416</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
         <v>42795.375</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
         <v>25.54982</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>25.74596</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>24.77535</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>25.37076</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>5304237</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
         <v>42828.29166666666</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
         <v>25.37076</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>25.47506</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>24.51487</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>24.63117</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>3746163</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
         <v>42856.29166666666</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
         <v>24.63117</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>24.71007</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>23.4176</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>23.43864</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>5957686</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
         <v>42887.29166666666</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
         <v>23.43864</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>23.6917</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>22.85486</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>22.86467</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>5906277</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
         <v>42919.29166666666</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
         <v>22.86467</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>23.1003</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>22.01736</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>22.02564</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>4704977</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
         <v>42948.29166666666</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
         <v>22.02564</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>22.3894</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>21.63918</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>21.92423</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>4970402</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
         <v>42979.29166666666</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
         <v>21.92423</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>22.26214</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>21.6058</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>21.98795</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>4963681</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
         <v>43010.33333333334</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
         <v>21.98795</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>22.1943</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>21.61308</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>22.03208</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>3724471</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
         <v>43040.33333333334</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
         <v>22.03208</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>22.1523</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>21.25212</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>21.43578</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>3330194</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
         <v>43070.375</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
         <v>21.43578</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>21.88697</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>21.22884</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>21.28354</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>3281374</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
         <v>43101.375</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
         <v>21.28354</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>21.44307</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>20.22672</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>20.35826</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>4322481</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
         <v>43132.375</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
         <v>20.35826</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>20.84958</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>20.10724</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>20.83706</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166">
         <v>4449057</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
         <v>43160.375</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
         <v>20.83706</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>20.90994</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>20.39418</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>20.5599</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>3863919</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
         <v>43192.29166666666</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
         <v>20.5599</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>21.203</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>20.34748</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>21.18878</v>
       </c>
-      <c r="G168" t="n">
+      <c r="G168">
         <v>3018575</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
         <v>43221.29166666666</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
         <v>21.18878</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>22.51924</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>21.17886</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>22.08551</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169">
         <v>6822099</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
         <v>43252.29166666666</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
         <v>22.08551</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>22.57309</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>21.64675</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170">
         <v>22.22981</v>
       </c>
-      <c r="G170" t="n">
+      <c r="G170">
         <v>7120679</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
         <v>43283.29166666666</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
         <v>22.22981</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>22.51756</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>21.78324</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>21.87174</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171">
         <v>5249991</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
         <v>43313.29166666666</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
         <v>21.87174</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>22.8421</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>21.85548</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>22.2081</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G172">
         <v>5387728</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
         <v>43346.29166666666</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
         <v>22.2081</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>22.32228</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>21.63185</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>22.20544</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G173">
         <v>4433695</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
         <v>43374.29166666666</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
         <v>22.20544</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>22.95009</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>22.16168</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>22.92121</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>5977854</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
         <v>43405.33333333334</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
         <v>22.92121</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>23.13358</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>22.4806</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>22.95476</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>7856602</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
         <v>43437.375</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
         <v>22.95476</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>22.95476</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>22.42</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>22.42772</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G176">
         <v>4713685</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
         <v>43466.375</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
         <v>22.42772</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>22.79098</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>22.15482</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177">
         <v>22.49852</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G177">
         <v>5082164</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
         <v>43497.375</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
         <v>22.49852</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>22.9643</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>22.34019</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>22.54009</v>
       </c>
-      <c r="G178" t="n">
+      <c r="G178">
         <v>3561834</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
         <v>43525.375</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179">
         <v>22.54009</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>23.03204</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>22.39774</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>23.01747</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179">
         <v>5101132</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
         <v>43556.33333333334</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
         <v>23.01747</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>23.1495</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>22.62472</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180">
         <v>22.8563</v>
       </c>
-      <c r="G180" t="n">
+      <c r="G180">
         <v>5083103</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
         <v>43586.29166666666</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
         <v>22.8563</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>23.24676</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>22.75414</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181">
         <v>23.1382</v>
       </c>
-      <c r="G181" t="n">
+      <c r="G181">
         <v>3390309</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
         <v>43619.29166666666</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
         <v>23.1382</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>23.16178</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>22.31382</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>22.36124</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>3864783</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
         <v>43647.29166666666</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
         <v>22.36124</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>23.24266</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>22.36124</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>23.18998</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G183">
         <v>3505222</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
         <v>43678.29166666666</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
         <v>23.18998</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>23.66996</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>22.90826</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184">
         <v>23.62924</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G184">
         <v>3880131</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
         <v>43710.29166666666</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
         <v>23.61638</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>23.71688</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>23.26636</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185">
         <v>23.66634</v>
       </c>
-      <c r="G185" t="n">
+      <c r="G185">
         <v>2574366</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
         <v>43739.29166666666</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186">
         <v>23.66634</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>23.72404</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>22.81678</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>22.87934</v>
       </c>
-      <c r="G186" t="n">
+      <c r="G186">
         <v>2671778</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
         <v>43770.33333333334</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
         <v>22.87934</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>23.27184</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>22.82895</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>23.18346</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G187">
         <v>1760513</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
         <v>43801.375</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188">
         <v>23.18346</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>23.21588</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>22.60478</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>22.67246</v>
       </c>
-      <c r="G188" t="n">
+      <c r="G188">
         <v>1859862</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
         <v>43831.375</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
         <v>22.67246</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>22.9662</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>22.45955</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189">
         <v>22.73242</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G189">
         <v>1891257</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
         <v>43864.375</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
         <v>22.73242</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>23.35662</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>22.61302</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190">
         <v>23.0865</v>
       </c>
-      <c r="G190" t="n">
+      <c r="G190">
         <v>2264040</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
         <v>43892.375</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
         <v>23.0865</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>26.07699</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>22.16699</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>24.80501</v>
       </c>
-      <c r="G191" t="n">
+      <c r="G191">
         <v>7403432</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
         <v>43922.33333333334</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
         <v>24.80501</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>25.79758</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>24.40487</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192">
         <v>24.77151</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G192">
         <v>3269933</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
         <v>43952.29166666666</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
         <v>24.77151</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>25.65224</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>24.1499</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>24.26113</v>
       </c>
-      <c r="G193" t="n">
+      <c r="G193">
         <v>2897330</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
         <v>43983.29166666666</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
         <v>24.26113</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>24.26824</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>23.22868</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194">
         <v>23.7417</v>
       </c>
-      <c r="G194" t="n">
+      <c r="G194">
         <v>4310432</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
         <v>44013.29166666666</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
         <v>23.7417</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>23.84458</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>21.98924</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>22.27926</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G195">
         <v>3248112</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
         <v>44046.29166666666</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
         <v>22.27926</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>22.49486</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>21.81136</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F196">
         <v>22.00242</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G196">
         <v>3031708</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
         <v>44075.29166666666</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
         <v>22.00242</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>23.39298</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>21.80389</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>23.10129</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197">
         <v>5202584</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
         <v>44105.29166666666</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
         <v>23.10129</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>23.49686</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>22.80794</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198">
         <v>23.4071</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G198">
         <v>2263786</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
         <v>44137.375</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199">
         <v>23.4071</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>23.4622</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>21.79935</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>21.99865</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G199">
         <v>2629126</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
         <v>44166.375</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
         <v>21.99865</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>22.02545</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>21.2929</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200">
         <v>21.48515</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G200">
         <v>2298628</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
         <v>44197.375</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
         <v>21.48515</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>21.7321</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>21.1368</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201">
         <v>21.4565</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G201">
         <v>2141967</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
         <v>44228.375</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
         <v>21.4565</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>21.7002</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>21.1135</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202">
         <v>21.66995</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G202">
         <v>2302461</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
         <v>44256.375</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
         <v>21.66995</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>22.34895</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>21.4293</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203">
         <v>22.2697</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G203">
         <v>2929131</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
         <v>44287.33333333334</v>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
         <v>22.2697</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>22.29776</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>21.27525</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>21.5235</v>
       </c>
-      <c r="G204" t="n">
+      <c r="G204">
         <v>2492230</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
         <v>44319.29166666666</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
         <v>21.5235</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>21.58115</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>20.7176</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205">
         <v>20.80115</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G205">
         <v>1993401</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
         <v>44348.29166666666</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
         <v>20.80115</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>21.59905</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>20.7424</v>
       </c>
-      <c r="F206" t="n">
+      <c r="F206">
         <v>21.5148</v>
       </c>
-      <c r="G206" t="n">
+      <c r="G206">
         <v>1632426</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
         <v>44378.29166666666</v>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
         <v>21.5148</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>21.9219</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>21.3863</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>21.4791</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G207">
         <v>2915514</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
         <v>44410.29166666666</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
         <v>21.4791</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>21.9785</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>21.2986</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>21.5172</v>
       </c>
-      <c r="G208" t="n">
+      <c r="G208">
         <v>3697515</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
         <v>44440.29166666666</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
         <v>21.5172</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>22.06975</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>21.3127</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F209">
         <v>21.8898</v>
       </c>
-      <c r="G209" t="n">
+      <c r="G209">
         <v>3778270</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
         <v>44470.29166666666</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
         <v>21.8898</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>22.24465</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>21.74005</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>22.18955</v>
       </c>
-      <c r="G210" t="n">
+      <c r="G210">
         <v>3021802</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
         <v>44501.33333333334</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
         <v>22.18955</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>22.93245</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>21.7115</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>22.50425</v>
       </c>
-      <c r="G211" t="n">
+      <c r="G211">
         <v>4173373</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
         <v>44531.375</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
         <v>22.50425</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>22.68565</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>21.8347</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>21.88305</v>
       </c>
-      <c r="G212" t="n">
+      <c r="G212">
         <v>4411900</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
         <v>44564.375</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
         <v>21.88305</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>22.01045</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>21.1215</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>21.66495</v>
       </c>
-      <c r="G213" t="n">
+      <c r="G213">
         <v>5191131</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
         <v>44593.375</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
         <v>21.66495</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>22.52075</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>21.1267</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214">
         <v>22.43155</v>
       </c>
-      <c r="G214" t="n">
+      <c r="G214">
         <v>5720803</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
         <v>44621.375</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
         <v>22.43155</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>23.9246</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>21.8394</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>22.0627</v>
       </c>
-      <c r="G215" t="n">
+      <c r="G215">
         <v>4148556</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
         <v>44652.33333333334</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
         <v>22.0627</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>23.456</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>21.96374</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216">
         <v>23.3422</v>
       </c>
-      <c r="G216" t="n">
+      <c r="G216">
         <v>4472070</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
         <v>44683.29166666666</v>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
         <v>23.3422</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>24.37176</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>22.8816</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217">
         <v>23.02835</v>
       </c>
-      <c r="G217" t="n">
+      <c r="G217">
         <v>6980946</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
         <v>44713.29166666666</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
         <v>23.02835</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>23.88035</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218">
         <v>22.89305</v>
       </c>
-      <c r="F218" t="n">
+      <c r="F218">
         <v>23.59865</v>
       </c>
-      <c r="G218" t="n">
+      <c r="G218">
         <v>4505543</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
         <v>44743.29166666666</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
         <v>23.59865</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>24.60775</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>23.5966</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F219">
         <v>24.06915</v>
       </c>
-      <c r="G219" t="n">
+      <c r="G219">
         <v>3382574</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
         <v>44774.29166666666</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
         <v>24.06915</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>24.9121</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>23.4553</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220">
         <v>24.37885</v>
       </c>
-      <c r="G220" t="n">
+      <c r="G220">
         <v>3390318</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
         <v>44805.29166666666</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
         <v>24.37885</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>25.8833</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>24.08395</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221">
         <v>25.0882</v>
       </c>
-      <c r="G221" t="n">
+      <c r="G221">
         <v>4077743</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
         <v>44837.33333333334</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
         <v>25.0882</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>25.5129</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>24.29056</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>24.7693</v>
       </c>
-      <c r="G222" t="n">
+      <c r="G222">
         <v>4251158</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
         <v>44866.33333333334</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223">
         <v>24.7693</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>25.21425</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>23.1991</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223">
         <v>23.3908</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G223">
         <v>3666525</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
         <v>44896.375</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
         <v>23.3908</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>23.42895</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>22.5192</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224">
         <v>22.55205</v>
       </c>
-      <c r="G224" t="n">
+      <c r="G224">
         <v>3041258</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
         <v>44928.375</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
         <v>22.55205</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>22.9552</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>21.753</v>
       </c>
-      <c r="F225" t="n">
+      <c r="F225">
         <v>21.8851</v>
       </c>
-      <c r="G225" t="n">
+      <c r="G225">
         <v>3324912</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
         <v>44958.375</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
         <v>21.8851</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>22.4581</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>21.55905</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>22.21615</v>
       </c>
-      <c r="G226" t="n">
+      <c r="G226">
         <v>2424237</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
         <v>44986.375</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227">
         <v>22.21615</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>22.85205</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>21.5299</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>21.64365</v>
       </c>
-      <c r="G227" t="n">
+      <c r="G227">
         <v>2542631</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
         <v>45019.29166666666</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
         <v>21.64365</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>21.77725</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>21.0002</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228">
         <v>21.35805</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G228">
         <v>1474987</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
         <v>45047.29166666666</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
         <v>21.35805</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>22.32265</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>21.1644</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>22.1908</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G229">
         <v>1568853</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
         <v>45078.29166666666</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230">
         <v>22.1908</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>22.24515</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>21.4818</v>
       </c>
-      <c r="F230" t="n">
+      <c r="F230">
         <v>21.7749</v>
       </c>
-      <c r="G230" t="n">
+      <c r="G230">
         <v>1549990</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
         <v>45110.29166666666</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231">
         <v>21.7749</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>22.0456</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>21.06865</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>21.72035</v>
       </c>
-      <c r="G231" t="n">
+      <c r="G231">
         <v>1803036</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
         <v>45139.29166666666</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232">
         <v>21.72035</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>22.427</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>21.703</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>22.1976</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G232">
         <v>1905910</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
         <v>45170.29166666666</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233">
         <v>22.1976</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>23.23755</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>22.15895</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>23.09665</v>
       </c>
-      <c r="G233" t="n">
+      <c r="G233">
         <v>1446802</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
         <v>45201.33333333334</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234">
         <v>23.09665</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>23.54365</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>22.9725</v>
       </c>
-      <c r="F234" t="n">
+      <c r="F234">
         <v>23.2365</v>
       </c>
-      <c r="G234" t="n">
+      <c r="G234">
         <v>2037564</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
         <v>45231.33333333334</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235">
         <v>23.2365</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>23.45305</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>21.99615</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235">
         <v>22.33085</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G235">
         <v>1787889</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
         <v>45261.375</v>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236">
         <v>22.33085</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>22.7641</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>22.13345</v>
       </c>
-      <c r="F236" t="n">
+      <c r="F236">
         <v>22.3795</v>
       </c>
-      <c r="G236" t="n">
+      <c r="G236">
         <v>1838695</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:7">
+      <c r="A237" s="2">
         <v>45292.375</v>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>OANDA:USDCZK</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237">
         <v>22.3795</v>
       </c>
-      <c r="D237" t="n">
-        <v>22.77605</v>
-      </c>
-      <c r="E237" t="n">
+      <c r="D237">
+        <v>23.01805</v>
+      </c>
+      <c r="E237">
         <v>22.3027</v>
       </c>
-      <c r="F237" t="n">
-        <v>22.76415</v>
-      </c>
-      <c r="G237" t="n">
-        <v>935109</v>
+      <c r="F237">
+        <v>22.94965</v>
+      </c>
+      <c r="G237">
+        <v>1796928</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>45323.375</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <v>22.94965</v>
+      </c>
+      <c r="D238">
+        <v>23.4559</v>
+      </c>
+      <c r="E238">
+        <v>22.82815</v>
+      </c>
+      <c r="F238">
+        <v>23.4035</v>
+      </c>
+      <c r="G238">
+        <v>609026</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>